--- a/PFE.xlsx
+++ b/PFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11599564-DA13-4237-A722-6805592DD764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D763937A-EF5B-45E1-B6CE-089AABE216F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{77BD1193-36D1-453A-8507-DD0E4F65FF43}"/>
+    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{77BD1193-36D1-453A-8507-DD0E4F65FF43}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
   <si>
     <t>Price</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>IPRD</t>
   </si>
   <si>
     <t>Amort</t>
@@ -584,7 +581,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>65942</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -634,7 +631,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>7328</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>65942</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1024,22 +1021,22 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
@@ -1053,7 +1050,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1155,7 +1152,7 @@
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -1249,13 +1246,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5B5DDB-CE15-46B7-BCA6-1FB6A18E83E7}">
-  <dimension ref="A1:DR107"/>
+  <dimension ref="A1:DR106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V74" sqref="V74:V75"/>
+      <selection pane="bottomRight" activeCell="V65" sqref="V65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1333,7 +1330,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1347,7 +1344,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1372,7 +1369,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" s="2">
         <v>6480</v>
@@ -1402,7 +1399,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L7" s="2">
         <v>6342</v>
@@ -1416,7 +1413,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="2">
         <v>18933</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L9" s="2">
         <v>37809</v>
@@ -1444,7 +1441,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L10" s="2">
         <v>213</v>
@@ -1458,7 +1455,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" s="2">
         <v>890</v>
@@ -1469,7 +1466,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L12" s="2">
         <v>455</v>
@@ -1483,7 +1480,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="2">
         <v>277</v>
@@ -1497,7 +1494,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" s="2">
         <v>200</v>
@@ -1511,7 +1508,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L15" s="2">
         <v>2473</v>
@@ -1525,7 +1522,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16" s="2">
         <v>2447</v>
@@ -1539,7 +1536,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L17" s="2">
         <v>1796</v>
@@ -1553,7 +1550,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" s="2">
         <v>1003</v>
@@ -1567,7 +1564,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" s="2">
         <v>786</v>
@@ -1581,7 +1578,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="2">
         <v>412</v>
@@ -1595,7 +1592,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L21" s="2">
         <v>186</v>
@@ -1609,7 +1606,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L22" s="2">
         <v>532</v>
@@ -1623,7 +1620,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L23" s="2">
         <v>331</v>
@@ -1637,7 +1634,7 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L24" s="2">
         <v>360</v>
@@ -1651,7 +1648,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L25" s="2">
         <v>425</v>
@@ -1665,7 +1662,7 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L26" s="2">
         <v>27</v>
@@ -1679,7 +1676,7 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L27" s="2">
         <v>73</v>
@@ -1693,7 +1690,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L28" s="2">
         <v>4730</v>
@@ -1707,7 +1704,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L29" s="2">
         <v>743</v>
@@ -1721,7 +1718,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L30" s="2">
         <v>5120</v>
@@ -1735,7 +1732,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L31" s="2">
         <v>1650</v>
@@ -1749,7 +1746,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M32" s="2">
         <v>53</v>
@@ -1760,7 +1757,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M33" s="2">
         <v>56</v>
@@ -1771,7 +1768,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L34" s="2">
         <v>1753</v>
@@ -1785,7 +1782,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L35" s="2">
         <v>1003</v>
@@ -1799,7 +1796,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L36" s="2">
         <v>343</v>
@@ -1813,7 +1810,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L37" s="2">
         <v>575</v>
@@ -1827,7 +1824,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L38" s="2">
         <v>456</v>
@@ -1841,7 +1838,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M39" s="2">
         <v>18</v>
@@ -1852,7 +1849,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M40" s="2">
         <v>10</v>
@@ -1863,7 +1860,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M41" s="2">
         <v>4</v>
@@ -1874,7 +1871,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L42" s="2">
         <v>48</v>
@@ -1888,7 +1885,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L43" s="2">
         <v>1846</v>
@@ -1997,11 +1994,11 @@
         <v>62500</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" ref="P47:T47" si="2">O47*1.04</f>
+        <f>O47*1.04</f>
         <v>65000</v>
       </c>
       <c r="Q47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q47:T47" si="2">P47*1.04</f>
         <v>67600</v>
       </c>
       <c r="R47" s="3">
@@ -2031,27 +2028,27 @@
         <v>17851</v>
       </c>
       <c r="O48" s="2">
-        <f>O47*(1-O67)</f>
+        <f>O47*(1-O66)</f>
         <v>21875</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" ref="P48:T48" si="3">P47*(1-P67)</f>
+        <f>P47*(1-P66)</f>
         <v>22750</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="3"/>
+        <f>Q47*(1-Q66)</f>
         <v>23660</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="3"/>
+        <f>R47*(1-R66)</f>
         <v>24606.399999999998</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" si="3"/>
+        <f>S47*(1-S66)</f>
         <v>25590.655999999999</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="3"/>
+        <f>T47*(1-T66)</f>
         <v>26614.28224</v>
       </c>
     </row>
@@ -2064,41 +2061,41 @@
         <v>66831</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" ref="M49:T49" si="4">M47-M48</f>
+        <f t="shared" ref="M49:T49" si="3">M47-M48</f>
         <v>34600</v>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45776</v>
       </c>
       <c r="O49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40625</v>
       </c>
       <c r="P49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42250</v>
       </c>
       <c r="Q49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43940</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45697.600000000006</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>47525.504000000001</v>
       </c>
       <c r="T49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>49426.524160000001</v>
       </c>
     </row>
     <row r="50" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L50" s="2">
         <v>13677</v>
@@ -2114,23 +2111,23 @@
         <v>15319.2</v>
       </c>
       <c r="P50" s="2">
-        <f t="shared" ref="P50:T50" si="5">O50*1.04</f>
+        <f t="shared" ref="P50:T50" si="4">O50*1.04</f>
         <v>15931.968000000001</v>
       </c>
       <c r="Q50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16569.246720000003</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17232.016588800005</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17921.297252352004</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18638.149142446084</v>
       </c>
     </row>
@@ -2153,13 +2150,13 @@
         <v>22</v>
       </c>
       <c r="L52" s="2">
-        <v>953</v>
+        <v>3609</v>
       </c>
       <c r="M52" s="2">
-        <v>194</v>
+        <v>4733</v>
       </c>
       <c r="N52" s="2">
-        <v>108</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="53" spans="2:122" x14ac:dyDescent="0.2">
@@ -2167,37 +2164,13 @@
         <v>23</v>
       </c>
       <c r="L53" s="2">
-        <v>3609</v>
+        <v>1375</v>
       </c>
       <c r="M53" s="2">
-        <v>4733</v>
+        <v>2943</v>
       </c>
       <c r="N53" s="2">
-        <v>5286</v>
-      </c>
-      <c r="O53" s="2">
-        <f t="shared" ref="O53:T53" si="6">N53</f>
-        <v>5286</v>
-      </c>
-      <c r="P53" s="2">
-        <f t="shared" si="6"/>
-        <v>5286</v>
-      </c>
-      <c r="Q53" s="2">
-        <f t="shared" si="6"/>
-        <v>5286</v>
-      </c>
-      <c r="R53" s="2">
-        <f t="shared" si="6"/>
-        <v>5286</v>
-      </c>
-      <c r="S53" s="2">
-        <f t="shared" si="6"/>
-        <v>5286</v>
-      </c>
-      <c r="T53" s="2">
-        <f t="shared" si="6"/>
-        <v>5286</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="54" spans="2:122" x14ac:dyDescent="0.2">
@@ -2205,13 +2178,13 @@
         <v>24</v>
       </c>
       <c r="L54" s="2">
-        <v>1375</v>
+        <v>1062</v>
       </c>
       <c r="M54" s="2">
-        <v>2943</v>
+        <v>222</v>
       </c>
       <c r="N54" s="2">
-        <v>2419</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="55" spans="2:122" x14ac:dyDescent="0.2">
@@ -2219,13 +2192,40 @@
         <v>25</v>
       </c>
       <c r="L55" s="2">
-        <v>1062</v>
+        <f>SUM(L51:L54)</f>
+        <v>17474</v>
       </c>
       <c r="M55" s="2">
-        <v>222</v>
+        <f>SUM(M51:M54)</f>
+        <v>18577</v>
       </c>
       <c r="N55" s="2">
-        <v>4388</v>
+        <f>SUM(N51:N54)</f>
+        <v>22915</v>
+      </c>
+      <c r="O55" s="2">
+        <f>SUM(O50:O54)</f>
+        <v>15319.2</v>
+      </c>
+      <c r="P55" s="2">
+        <f>SUM(P50:P54)</f>
+        <v>15931.968000000001</v>
+      </c>
+      <c r="Q55" s="2">
+        <f>SUM(Q50:Q54)</f>
+        <v>16569.246720000003</v>
+      </c>
+      <c r="R55" s="2">
+        <f>SUM(R50:R54)</f>
+        <v>17232.016588800005</v>
+      </c>
+      <c r="S55" s="2">
+        <f>SUM(S50:S54)</f>
+        <v>17921.297252352004</v>
+      </c>
+      <c r="T55" s="2">
+        <f>SUM(T50:T54)</f>
+        <v>18638.149142446084</v>
       </c>
     </row>
     <row r="56" spans="2:122" x14ac:dyDescent="0.2">
@@ -2233,985 +2233,957 @@
         <v>26</v>
       </c>
       <c r="L56" s="2">
-        <f>SUM(L51:L55)</f>
-        <v>18427</v>
+        <f>L49-L55</f>
+        <v>49357</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" ref="M56:T56" si="7">SUM(M51:M55)</f>
-        <v>18771</v>
+        <f>M49-M55</f>
+        <v>16023</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" si="7"/>
-        <v>23023</v>
+        <f>N49-N55</f>
+        <v>22861</v>
       </c>
       <c r="O56" s="2">
-        <f t="shared" si="7"/>
-        <v>5286</v>
+        <f>O49-O55</f>
+        <v>25305.8</v>
       </c>
       <c r="P56" s="2">
-        <f t="shared" si="7"/>
-        <v>5286</v>
+        <f>P49-P55</f>
+        <v>26318.031999999999</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="7"/>
-        <v>5286</v>
+        <f>Q49-Q55</f>
+        <v>27370.753279999997</v>
       </c>
       <c r="R56" s="2">
-        <f t="shared" si="7"/>
-        <v>5286</v>
+        <f>R49-R55</f>
+        <v>28465.583411200001</v>
       </c>
       <c r="S56" s="2">
-        <f t="shared" si="7"/>
-        <v>5286</v>
+        <f>S49-S55</f>
+        <v>29604.206747647997</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" si="7"/>
-        <v>5286</v>
+        <f>T49-T55</f>
+        <v>30788.375017553917</v>
       </c>
     </row>
     <row r="57" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L57" s="2">
-        <f>L49-L56</f>
-        <v>48404</v>
-      </c>
-      <c r="M57" s="2">
-        <f t="shared" ref="M57:T57" si="8">M49-M56</f>
-        <v>15829</v>
-      </c>
-      <c r="N57" s="2">
-        <f t="shared" si="8"/>
-        <v>22753</v>
-      </c>
       <c r="O57" s="2">
-        <f t="shared" si="8"/>
-        <v>35339</v>
+        <f>N69*$W$63</f>
+        <v>-945.54</v>
       </c>
       <c r="P57" s="2">
-        <f t="shared" si="8"/>
-        <v>36964</v>
+        <f t="shared" ref="P57:T57" si="5">O69*$W$63</f>
+        <v>-556.75025040000003</v>
       </c>
       <c r="Q57" s="2">
-        <f t="shared" si="8"/>
-        <v>38654</v>
+        <f t="shared" si="5"/>
+        <v>-145.60019367638401</v>
       </c>
       <c r="R57" s="2">
-        <f t="shared" si="8"/>
-        <v>40411.600000000006</v>
+        <f t="shared" si="5"/>
+        <v>288.91324958134095</v>
       </c>
       <c r="S57" s="2">
-        <f t="shared" si="8"/>
-        <v>42239.504000000001</v>
+        <f t="shared" si="5"/>
+        <v>747.83501628741112</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" si="8"/>
-        <v>44140.524160000001</v>
+        <f t="shared" si="5"/>
+        <v>1232.2536028398204</v>
       </c>
     </row>
     <row r="58" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="L58" s="2">
+        <f>L56+L57</f>
+        <v>49357</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" ref="M58:T58" si="6">M56+M57</f>
+        <v>16023</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="6"/>
+        <v>22861</v>
+      </c>
       <c r="O58" s="2">
-        <f>N70*$W$64</f>
-        <v>-945.54</v>
+        <f t="shared" si="6"/>
+        <v>24360.26</v>
       </c>
       <c r="P58" s="2">
-        <f t="shared" ref="P58:T58" si="9">O70*$W$64</f>
-        <v>-396.62037839999999</v>
+        <f t="shared" si="6"/>
+        <v>25761.281749599999</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="9"/>
-        <v>186.99500036073601</v>
+        <f t="shared" si="6"/>
+        <v>27225.153086323615</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" si="9"/>
-        <v>806.89728056649335</v>
+        <f t="shared" si="6"/>
+        <v>28754.49666078134</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" si="9"/>
-        <v>1464.7444971643347</v>
+        <f t="shared" si="6"/>
+        <v>30352.041763935409</v>
       </c>
       <c r="T58" s="2">
-        <f t="shared" si="9"/>
-        <v>2162.2643031790776</v>
+        <f t="shared" si="6"/>
+        <v>32020.628620393738</v>
       </c>
     </row>
     <row r="59" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L59" s="2">
-        <f>L57+L58</f>
-        <v>48404</v>
+        <v>3328</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" ref="M59:T59" si="10">M57+M58</f>
-        <v>15829</v>
+        <v>-1115</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="10"/>
-        <v>22753</v>
+        <v>-28</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="10"/>
-        <v>34393.46</v>
+        <f>O58*0.2</f>
+        <v>4872.0519999999997</v>
       </c>
       <c r="P59" s="2">
-        <f t="shared" si="10"/>
-        <v>36567.379621599997</v>
+        <f t="shared" ref="P59:T59" si="7">P58*0.2</f>
+        <v>5152.2563499200005</v>
       </c>
       <c r="Q59" s="2">
-        <f t="shared" si="10"/>
-        <v>38840.995000360737</v>
+        <f t="shared" si="7"/>
+        <v>5445.0306172647233</v>
       </c>
       <c r="R59" s="2">
-        <f t="shared" si="10"/>
-        <v>41218.497280566502</v>
+        <f t="shared" si="7"/>
+        <v>5750.8993321562684</v>
       </c>
       <c r="S59" s="2">
-        <f t="shared" si="10"/>
-        <v>43704.248497164335</v>
+        <f t="shared" si="7"/>
+        <v>6070.4083527870825</v>
       </c>
       <c r="T59" s="2">
-        <f t="shared" si="10"/>
-        <v>46302.78846317908</v>
+        <f t="shared" si="7"/>
+        <v>6404.1257240787481</v>
       </c>
     </row>
     <row r="60" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L60" s="2">
+        <v>35</v>
+      </c>
+      <c r="M60" s="2">
+        <v>39</v>
+      </c>
+      <c r="N60" s="2">
         <v>31</v>
       </c>
-      <c r="L60" s="2">
-        <v>3328</v>
-      </c>
-      <c r="M60" s="2">
-        <v>-1115</v>
-      </c>
-      <c r="N60" s="2">
-        <v>-28</v>
-      </c>
       <c r="O60" s="2">
-        <f>O59*0.2</f>
-        <v>6878.692</v>
+        <f>O58*0.002</f>
+        <v>48.72052</v>
       </c>
       <c r="P60" s="2">
-        <f t="shared" ref="P60:T60" si="11">P59*0.2</f>
-        <v>7313.4759243199996</v>
+        <f t="shared" ref="P60:T60" si="8">P58*0.002</f>
+        <v>51.522563499199997</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="11"/>
-        <v>7768.199000072148</v>
+        <f t="shared" si="8"/>
+        <v>54.450306172647231</v>
       </c>
       <c r="R60" s="2">
-        <f t="shared" si="11"/>
-        <v>8243.6994561133015</v>
+        <f t="shared" si="8"/>
+        <v>57.508993321562684</v>
       </c>
       <c r="S60" s="2">
-        <f t="shared" si="11"/>
-        <v>8740.8496994328671</v>
+        <f t="shared" si="8"/>
+        <v>60.704083527870822</v>
       </c>
       <c r="T60" s="2">
-        <f t="shared" si="11"/>
-        <v>9260.5576926358171</v>
+        <f t="shared" si="8"/>
+        <v>64.041257240787473</v>
       </c>
     </row>
     <row r="61" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L61" s="2">
-        <v>35</v>
+        <f>L58-L59-L60</f>
+        <v>45994</v>
       </c>
       <c r="M61" s="2">
-        <v>39</v>
+        <f t="shared" ref="M61:Q61" si="9">M58-M59-M60</f>
+        <v>17099</v>
       </c>
       <c r="N61" s="2">
-        <v>31</v>
+        <f t="shared" si="9"/>
+        <v>22858</v>
       </c>
       <c r="O61" s="2">
-        <f>O59*0.002</f>
-        <v>68.786919999999995</v>
+        <f t="shared" si="9"/>
+        <v>19439.48748</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" ref="P61:T61" si="12">P59*0.002</f>
-        <v>73.134759243199994</v>
+        <f t="shared" si="9"/>
+        <v>20557.5028361808</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="12"/>
-        <v>77.68199000072147</v>
+        <f t="shared" si="9"/>
+        <v>21725.672162886247</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" si="12"/>
-        <v>82.436994561133005</v>
+        <f t="shared" ref="R61" si="10">R58-R59-R60</f>
+        <v>22946.08833530351</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" si="12"/>
-        <v>87.408496994328672</v>
+        <f t="shared" ref="S61" si="11">S58-S59-S60</f>
+        <v>24220.929327620455</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" si="12"/>
-        <v>92.605576926358168</v>
+        <f t="shared" ref="T61" si="12">T58-T59-T60</f>
+        <v>25552.461639074201</v>
+      </c>
+      <c r="U61" s="2">
+        <f t="shared" ref="U61:AZ61" si="13">T61*(1+$W$64)</f>
+        <v>25296.937022683458</v>
+      </c>
+      <c r="V61" s="2">
+        <f t="shared" si="13"/>
+        <v>25043.967652456624</v>
+      </c>
+      <c r="W61" s="2">
+        <f t="shared" si="13"/>
+        <v>24793.527975932058</v>
+      </c>
+      <c r="X61" s="2">
+        <f t="shared" si="13"/>
+        <v>24545.592696172738</v>
+      </c>
+      <c r="Y61" s="2">
+        <f t="shared" si="13"/>
+        <v>24300.136769211011</v>
+      </c>
+      <c r="Z61" s="2">
+        <f t="shared" si="13"/>
+        <v>24057.135401518899</v>
+      </c>
+      <c r="AA61" s="2">
+        <f t="shared" si="13"/>
+        <v>23816.564047503711</v>
+      </c>
+      <c r="AB61" s="2">
+        <f t="shared" si="13"/>
+        <v>23578.398407028675</v>
+      </c>
+      <c r="AC61" s="2">
+        <f t="shared" si="13"/>
+        <v>23342.614422958388</v>
+      </c>
+      <c r="AD61" s="2">
+        <f t="shared" si="13"/>
+        <v>23109.188278728805</v>
+      </c>
+      <c r="AE61" s="2">
+        <f t="shared" si="13"/>
+        <v>22878.096395941517</v>
+      </c>
+      <c r="AF61" s="2">
+        <f t="shared" si="13"/>
+        <v>22649.315431982101</v>
+      </c>
+      <c r="AG61" s="2">
+        <f t="shared" si="13"/>
+        <v>22422.822277662279</v>
+      </c>
+      <c r="AH61" s="2">
+        <f t="shared" si="13"/>
+        <v>22198.594054885656</v>
+      </c>
+      <c r="AI61" s="2">
+        <f t="shared" si="13"/>
+        <v>21976.608114336799</v>
+      </c>
+      <c r="AJ61" s="2">
+        <f t="shared" si="13"/>
+        <v>21756.842033193432</v>
+      </c>
+      <c r="AK61" s="2">
+        <f t="shared" si="13"/>
+        <v>21539.273612861496</v>
+      </c>
+      <c r="AL61" s="2">
+        <f t="shared" si="13"/>
+        <v>21323.880876732881</v>
+      </c>
+      <c r="AM61" s="2">
+        <f t="shared" si="13"/>
+        <v>21110.642067965553</v>
+      </c>
+      <c r="AN61" s="2">
+        <f t="shared" si="13"/>
+        <v>20899.535647285898</v>
+      </c>
+      <c r="AO61" s="2">
+        <f t="shared" si="13"/>
+        <v>20690.540290813038</v>
+      </c>
+      <c r="AP61" s="2">
+        <f t="shared" si="13"/>
+        <v>20483.634887904907</v>
+      </c>
+      <c r="AQ61" s="2">
+        <f t="shared" si="13"/>
+        <v>20278.798539025858</v>
+      </c>
+      <c r="AR61" s="2">
+        <f t="shared" si="13"/>
+        <v>20076.010553635599</v>
+      </c>
+      <c r="AS61" s="2">
+        <f t="shared" si="13"/>
+        <v>19875.250448099243</v>
+      </c>
+      <c r="AT61" s="2">
+        <f t="shared" si="13"/>
+        <v>19676.497943618251</v>
+      </c>
+      <c r="AU61" s="2">
+        <f t="shared" si="13"/>
+        <v>19479.732964182069</v>
+      </c>
+      <c r="AV61" s="2">
+        <f t="shared" si="13"/>
+        <v>19284.935634540248</v>
+      </c>
+      <c r="AW61" s="2">
+        <f t="shared" si="13"/>
+        <v>19092.086278194845</v>
+      </c>
+      <c r="AX61" s="2">
+        <f t="shared" si="13"/>
+        <v>18901.165415412896</v>
+      </c>
+      <c r="AY61" s="2">
+        <f t="shared" si="13"/>
+        <v>18712.153761258767</v>
+      </c>
+      <c r="AZ61" s="2">
+        <f t="shared" si="13"/>
+        <v>18525.03222364618</v>
+      </c>
+      <c r="BA61" s="2">
+        <f t="shared" ref="BA61:CF61" si="14">AZ61*(1+$W$64)</f>
+        <v>18339.781901409719</v>
+      </c>
+      <c r="BB61" s="2">
+        <f t="shared" si="14"/>
+        <v>18156.38408239562</v>
+      </c>
+      <c r="BC61" s="2">
+        <f t="shared" si="14"/>
+        <v>17974.820241571662</v>
+      </c>
+      <c r="BD61" s="2">
+        <f t="shared" si="14"/>
+        <v>17795.072039155944</v>
+      </c>
+      <c r="BE61" s="2">
+        <f t="shared" si="14"/>
+        <v>17617.121318764384</v>
+      </c>
+      <c r="BF61" s="2">
+        <f t="shared" si="14"/>
+        <v>17440.95010557674</v>
+      </c>
+      <c r="BG61" s="2">
+        <f t="shared" si="14"/>
+        <v>17266.540604520971</v>
+      </c>
+      <c r="BH61" s="2">
+        <f t="shared" si="14"/>
+        <v>17093.875198475762</v>
+      </c>
+      <c r="BI61" s="2">
+        <f t="shared" si="14"/>
+        <v>16922.936446491003</v>
+      </c>
+      <c r="BJ61" s="2">
+        <f t="shared" si="14"/>
+        <v>16753.707082026092</v>
+      </c>
+      <c r="BK61" s="2">
+        <f t="shared" si="14"/>
+        <v>16586.170011205832</v>
+      </c>
+      <c r="BL61" s="2">
+        <f t="shared" si="14"/>
+        <v>16420.308311093773</v>
+      </c>
+      <c r="BM61" s="2">
+        <f t="shared" si="14"/>
+        <v>16256.105227982835</v>
+      </c>
+      <c r="BN61" s="2">
+        <f t="shared" si="14"/>
+        <v>16093.544175703006</v>
+      </c>
+      <c r="BO61" s="2">
+        <f t="shared" si="14"/>
+        <v>15932.608733945975</v>
+      </c>
+      <c r="BP61" s="2">
+        <f t="shared" si="14"/>
+        <v>15773.282646606516</v>
+      </c>
+      <c r="BQ61" s="2">
+        <f t="shared" si="14"/>
+        <v>15615.549820140452</v>
+      </c>
+      <c r="BR61" s="2">
+        <f t="shared" si="14"/>
+        <v>15459.394321939048</v>
+      </c>
+      <c r="BS61" s="2">
+        <f t="shared" si="14"/>
+        <v>15304.800378719658</v>
+      </c>
+      <c r="BT61" s="2">
+        <f t="shared" si="14"/>
+        <v>15151.752374932461</v>
+      </c>
+      <c r="BU61" s="2">
+        <f t="shared" si="14"/>
+        <v>15000.234851183137</v>
+      </c>
+      <c r="BV61" s="2">
+        <f t="shared" si="14"/>
+        <v>14850.232502671306</v>
+      </c>
+      <c r="BW61" s="2">
+        <f t="shared" si="14"/>
+        <v>14701.730177644593</v>
+      </c>
+      <c r="BX61" s="2">
+        <f t="shared" si="14"/>
+        <v>14554.712875868147</v>
+      </c>
+      <c r="BY61" s="2">
+        <f t="shared" si="14"/>
+        <v>14409.165747109464</v>
+      </c>
+      <c r="BZ61" s="2">
+        <f t="shared" si="14"/>
+        <v>14265.074089638369</v>
+      </c>
+      <c r="CA61" s="2">
+        <f t="shared" si="14"/>
+        <v>14122.423348741984</v>
+      </c>
+      <c r="CB61" s="2">
+        <f t="shared" si="14"/>
+        <v>13981.199115254563</v>
+      </c>
+      <c r="CC61" s="2">
+        <f t="shared" si="14"/>
+        <v>13841.387124102017</v>
+      </c>
+      <c r="CD61" s="2">
+        <f t="shared" si="14"/>
+        <v>13702.973252860997</v>
+      </c>
+      <c r="CE61" s="2">
+        <f t="shared" si="14"/>
+        <v>13565.943520332386</v>
+      </c>
+      <c r="CF61" s="2">
+        <f t="shared" si="14"/>
+        <v>13430.284085129062</v>
+      </c>
+      <c r="CG61" s="2">
+        <f t="shared" ref="CG61:DL61" si="15">CF61*(1+$W$64)</f>
+        <v>13295.981244277771</v>
+      </c>
+      <c r="CH61" s="2">
+        <f t="shared" si="15"/>
+        <v>13163.021431834994</v>
+      </c>
+      <c r="CI61" s="2">
+        <f t="shared" si="15"/>
+        <v>13031.391217516644</v>
+      </c>
+      <c r="CJ61" s="2">
+        <f t="shared" si="15"/>
+        <v>12901.077305341478</v>
+      </c>
+      <c r="CK61" s="2">
+        <f t="shared" si="15"/>
+        <v>12772.066532288063</v>
+      </c>
+      <c r="CL61" s="2">
+        <f t="shared" si="15"/>
+        <v>12644.345866965183</v>
+      </c>
+      <c r="CM61" s="2">
+        <f t="shared" si="15"/>
+        <v>12517.902408295531</v>
+      </c>
+      <c r="CN61" s="2">
+        <f t="shared" si="15"/>
+        <v>12392.723384212575</v>
+      </c>
+      <c r="CO61" s="2">
+        <f t="shared" si="15"/>
+        <v>12268.79615037045</v>
+      </c>
+      <c r="CP61" s="2">
+        <f t="shared" si="15"/>
+        <v>12146.108188866745</v>
+      </c>
+      <c r="CQ61" s="2">
+        <f t="shared" si="15"/>
+        <v>12024.647106978078</v>
+      </c>
+      <c r="CR61" s="2">
+        <f t="shared" si="15"/>
+        <v>11904.400635908298</v>
+      </c>
+      <c r="CS61" s="2">
+        <f t="shared" si="15"/>
+        <v>11785.356629549215</v>
+      </c>
+      <c r="CT61" s="2">
+        <f t="shared" si="15"/>
+        <v>11667.503063253722</v>
+      </c>
+      <c r="CU61" s="2">
+        <f t="shared" si="15"/>
+        <v>11550.828032621184</v>
+      </c>
+      <c r="CV61" s="2">
+        <f t="shared" si="15"/>
+        <v>11435.319752294972</v>
+      </c>
+      <c r="CW61" s="2">
+        <f t="shared" si="15"/>
+        <v>11320.966554772021</v>
+      </c>
+      <c r="CX61" s="2">
+        <f t="shared" si="15"/>
+        <v>11207.756889224302</v>
+      </c>
+      <c r="CY61" s="2">
+        <f t="shared" si="15"/>
+        <v>11095.679320332058</v>
+      </c>
+      <c r="CZ61" s="2">
+        <f t="shared" si="15"/>
+        <v>10984.722527128737</v>
+      </c>
+      <c r="DA61" s="2">
+        <f t="shared" si="15"/>
+        <v>10874.87530185745</v>
+      </c>
+      <c r="DB61" s="2">
+        <f t="shared" si="15"/>
+        <v>10766.126548838874</v>
+      </c>
+      <c r="DC61" s="2">
+        <f t="shared" si="15"/>
+        <v>10658.465283350486</v>
+      </c>
+      <c r="DD61" s="2">
+        <f t="shared" si="15"/>
+        <v>10551.880630516982</v>
+      </c>
+      <c r="DE61" s="2">
+        <f t="shared" si="15"/>
+        <v>10446.361824211812</v>
+      </c>
+      <c r="DF61" s="2">
+        <f t="shared" si="15"/>
+        <v>10341.898205969694</v>
+      </c>
+      <c r="DG61" s="2">
+        <f t="shared" si="15"/>
+        <v>10238.479223909997</v>
+      </c>
+      <c r="DH61" s="2">
+        <f t="shared" si="15"/>
+        <v>10136.094431670897</v>
+      </c>
+      <c r="DI61" s="2">
+        <f t="shared" si="15"/>
+        <v>10034.733487354188</v>
+      </c>
+      <c r="DJ61" s="2">
+        <f t="shared" si="15"/>
+        <v>9934.3861524806453</v>
+      </c>
+      <c r="DK61" s="2">
+        <f t="shared" si="15"/>
+        <v>9835.0422909558383</v>
+      </c>
+      <c r="DL61" s="2">
+        <f t="shared" si="15"/>
+        <v>9736.6918680462804</v>
+      </c>
+      <c r="DM61" s="2">
+        <f t="shared" ref="DM61:DR61" si="16">DL61*(1+$W$64)</f>
+        <v>9639.3249493658168</v>
+      </c>
+      <c r="DN61" s="2">
+        <f t="shared" si="16"/>
+        <v>9542.9316998721588</v>
+      </c>
+      <c r="DO61" s="2">
+        <f t="shared" si="16"/>
+        <v>9447.5023828734375</v>
+      </c>
+      <c r="DP61" s="2">
+        <f t="shared" si="16"/>
+        <v>9353.0273590447032</v>
+      </c>
+      <c r="DQ61" s="2">
+        <f t="shared" si="16"/>
+        <v>9259.4970854542553</v>
+      </c>
+      <c r="DR61" s="2">
+        <f t="shared" si="16"/>
+        <v>9166.9021145997121</v>
       </c>
     </row>
     <row r="62" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="L62" s="2">
-        <f>L59-L60-L61</f>
-        <v>45041</v>
+        <v>5733</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" ref="M62:Q62" si="13">M59-M60-M61</f>
-        <v>16905</v>
+        <v>5709</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" si="13"/>
-        <v>22750</v>
+        <v>5700</v>
       </c>
       <c r="O62" s="2">
-        <f t="shared" si="13"/>
-        <v>27445.981080000001</v>
+        <f>N62</f>
+        <v>5700</v>
       </c>
       <c r="P62" s="2">
-        <f t="shared" si="13"/>
-        <v>29180.768938036799</v>
+        <f t="shared" ref="P62:T62" si="17">O62</f>
+        <v>5700</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="13"/>
-        <v>30995.114010287867</v>
+        <f t="shared" si="17"/>
+        <v>5700</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" ref="R62" si="14">R59-R60-R61</f>
-        <v>32892.360829892066</v>
+        <f t="shared" si="17"/>
+        <v>5700</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" ref="S62" si="15">S59-S60-S61</f>
-        <v>34875.990300737139</v>
+        <f t="shared" si="17"/>
+        <v>5700</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" ref="T62" si="16">T59-T60-T61</f>
-        <v>36949.625193616906</v>
-      </c>
-      <c r="U62" s="2">
-        <f t="shared" ref="U62:AZ62" si="17">T62*(1+$W$65)</f>
-        <v>36580.128941680734</v>
-      </c>
-      <c r="V62" s="2">
         <f t="shared" si="17"/>
-        <v>36214.327652263928</v>
-      </c>
-      <c r="W62" s="2">
-        <f t="shared" si="17"/>
-        <v>35852.184375741286</v>
-      </c>
-      <c r="X62" s="2">
-        <f t="shared" si="17"/>
-        <v>35493.662531983871</v>
-      </c>
-      <c r="Y62" s="2">
-        <f t="shared" si="17"/>
-        <v>35138.725906664033</v>
-      </c>
-      <c r="Z62" s="2">
-        <f t="shared" si="17"/>
-        <v>34787.338647597389</v>
-      </c>
-      <c r="AA62" s="2">
-        <f t="shared" si="17"/>
-        <v>34439.465261121419</v>
-      </c>
-      <c r="AB62" s="2">
-        <f t="shared" si="17"/>
-        <v>34095.070608510207</v>
-      </c>
-      <c r="AC62" s="2">
-        <f t="shared" si="17"/>
-        <v>33754.119902425104</v>
-      </c>
-      <c r="AD62" s="2">
-        <f t="shared" si="17"/>
-        <v>33416.578703400854</v>
-      </c>
-      <c r="AE62" s="2">
-        <f t="shared" si="17"/>
-        <v>33082.412916366848</v>
-      </c>
-      <c r="AF62" s="2">
-        <f t="shared" si="17"/>
-        <v>32751.588787203178</v>
-      </c>
-      <c r="AG62" s="2">
-        <f t="shared" si="17"/>
-        <v>32424.072899331146</v>
-      </c>
-      <c r="AH62" s="2">
-        <f t="shared" si="17"/>
-        <v>32099.832170337835</v>
-      </c>
-      <c r="AI62" s="2">
-        <f t="shared" si="17"/>
-        <v>31778.833848634458</v>
-      </c>
-      <c r="AJ62" s="2">
-        <f t="shared" si="17"/>
-        <v>31461.045510148113</v>
-      </c>
-      <c r="AK62" s="2">
-        <f t="shared" si="17"/>
-        <v>31146.435055046633</v>
-      </c>
-      <c r="AL62" s="2">
-        <f t="shared" si="17"/>
-        <v>30834.970704496165</v>
-      </c>
-      <c r="AM62" s="2">
-        <f t="shared" si="17"/>
-        <v>30526.620997451202</v>
-      </c>
-      <c r="AN62" s="2">
-        <f t="shared" si="17"/>
-        <v>30221.354787476688</v>
-      </c>
-      <c r="AO62" s="2">
-        <f t="shared" si="17"/>
-        <v>29919.141239601922</v>
-      </c>
-      <c r="AP62" s="2">
-        <f t="shared" si="17"/>
-        <v>29619.949827205903</v>
-      </c>
-      <c r="AQ62" s="2">
-        <f t="shared" si="17"/>
-        <v>29323.750328933842</v>
-      </c>
-      <c r="AR62" s="2">
-        <f t="shared" si="17"/>
-        <v>29030.512825644502</v>
-      </c>
-      <c r="AS62" s="2">
-        <f t="shared" si="17"/>
-        <v>28740.207697388058</v>
-      </c>
-      <c r="AT62" s="2">
-        <f t="shared" si="17"/>
-        <v>28452.805620414176</v>
-      </c>
-      <c r="AU62" s="2">
-        <f t="shared" si="17"/>
-        <v>28168.277564210035</v>
-      </c>
-      <c r="AV62" s="2">
-        <f t="shared" si="17"/>
-        <v>27886.594788567934</v>
-      </c>
-      <c r="AW62" s="2">
-        <f t="shared" si="17"/>
-        <v>27607.728840682255</v>
-      </c>
-      <c r="AX62" s="2">
-        <f t="shared" si="17"/>
-        <v>27331.651552275434</v>
-      </c>
-      <c r="AY62" s="2">
-        <f t="shared" si="17"/>
-        <v>27058.33503675268</v>
-      </c>
-      <c r="AZ62" s="2">
-        <f t="shared" si="17"/>
-        <v>26787.751686385152</v>
-      </c>
-      <c r="BA62" s="2">
-        <f t="shared" ref="BA62:CF62" si="18">AZ62*(1+$W$65)</f>
-        <v>26519.874169521299</v>
-      </c>
-      <c r="BB62" s="2">
-        <f t="shared" si="18"/>
-        <v>26254.675427826085</v>
-      </c>
-      <c r="BC62" s="2">
-        <f t="shared" si="18"/>
-        <v>25992.128673547824</v>
-      </c>
-      <c r="BD62" s="2">
-        <f t="shared" si="18"/>
-        <v>25732.207386812344</v>
-      </c>
-      <c r="BE62" s="2">
-        <f t="shared" si="18"/>
-        <v>25474.885312944221</v>
-      </c>
-      <c r="BF62" s="2">
-        <f t="shared" si="18"/>
-        <v>25220.136459814777</v>
-      </c>
-      <c r="BG62" s="2">
-        <f t="shared" si="18"/>
-        <v>24967.935095216628</v>
-      </c>
-      <c r="BH62" s="2">
-        <f t="shared" si="18"/>
-        <v>24718.255744264461</v>
-      </c>
-      <c r="BI62" s="2">
-        <f t="shared" si="18"/>
-        <v>24471.073186821817</v>
-      </c>
-      <c r="BJ62" s="2">
-        <f t="shared" si="18"/>
-        <v>24226.3624549536</v>
-      </c>
-      <c r="BK62" s="2">
-        <f t="shared" si="18"/>
-        <v>23984.098830404062</v>
-      </c>
-      <c r="BL62" s="2">
-        <f t="shared" si="18"/>
-        <v>23744.257842100022</v>
-      </c>
-      <c r="BM62" s="2">
-        <f t="shared" si="18"/>
-        <v>23506.815263679022</v>
-      </c>
-      <c r="BN62" s="2">
-        <f t="shared" si="18"/>
-        <v>23271.74711104223</v>
-      </c>
-      <c r="BO62" s="2">
-        <f t="shared" si="18"/>
-        <v>23039.029639931807</v>
-      </c>
-      <c r="BP62" s="2">
-        <f t="shared" si="18"/>
-        <v>22808.63934353249</v>
-      </c>
-      <c r="BQ62" s="2">
-        <f t="shared" si="18"/>
-        <v>22580.552950097164</v>
-      </c>
-      <c r="BR62" s="2">
-        <f t="shared" si="18"/>
-        <v>22354.747420596192</v>
-      </c>
-      <c r="BS62" s="2">
-        <f t="shared" si="18"/>
-        <v>22131.199946390228</v>
-      </c>
-      <c r="BT62" s="2">
-        <f t="shared" si="18"/>
-        <v>21909.887946926327</v>
-      </c>
-      <c r="BU62" s="2">
-        <f t="shared" si="18"/>
-        <v>21690.789067457063</v>
-      </c>
-      <c r="BV62" s="2">
-        <f t="shared" si="18"/>
-        <v>21473.881176782492</v>
-      </c>
-      <c r="BW62" s="2">
-        <f t="shared" si="18"/>
-        <v>21259.142365014668</v>
-      </c>
-      <c r="BX62" s="2">
-        <f t="shared" si="18"/>
-        <v>21046.55094136452</v>
-      </c>
-      <c r="BY62" s="2">
-        <f t="shared" si="18"/>
-        <v>20836.085431950873</v>
-      </c>
-      <c r="BZ62" s="2">
-        <f t="shared" si="18"/>
-        <v>20627.724577631365</v>
-      </c>
-      <c r="CA62" s="2">
-        <f t="shared" si="18"/>
-        <v>20421.447331855052</v>
-      </c>
-      <c r="CB62" s="2">
-        <f t="shared" si="18"/>
-        <v>20217.232858536499</v>
-      </c>
-      <c r="CC62" s="2">
-        <f t="shared" si="18"/>
-        <v>20015.060529951134</v>
-      </c>
-      <c r="CD62" s="2">
-        <f t="shared" si="18"/>
-        <v>19814.909924651623</v>
-      </c>
-      <c r="CE62" s="2">
-        <f t="shared" si="18"/>
-        <v>19616.760825405108</v>
-      </c>
-      <c r="CF62" s="2">
-        <f t="shared" si="18"/>
-        <v>19420.593217151058</v>
-      </c>
-      <c r="CG62" s="2">
-        <f t="shared" ref="CG62:DL62" si="19">CF62*(1+$W$65)</f>
-        <v>19226.387284979548</v>
-      </c>
-      <c r="CH62" s="2">
-        <f t="shared" si="19"/>
-        <v>19034.123412129753</v>
-      </c>
-      <c r="CI62" s="2">
-        <f t="shared" si="19"/>
-        <v>18843.782178008456</v>
-      </c>
-      <c r="CJ62" s="2">
-        <f t="shared" si="19"/>
-        <v>18655.344356228372</v>
-      </c>
-      <c r="CK62" s="2">
-        <f t="shared" si="19"/>
-        <v>18468.790912666089</v>
-      </c>
-      <c r="CL62" s="2">
-        <f t="shared" si="19"/>
-        <v>18284.103003539429</v>
-      </c>
-      <c r="CM62" s="2">
-        <f t="shared" si="19"/>
-        <v>18101.261973504035</v>
-      </c>
-      <c r="CN62" s="2">
-        <f t="shared" si="19"/>
-        <v>17920.249353768995</v>
-      </c>
-      <c r="CO62" s="2">
-        <f t="shared" si="19"/>
-        <v>17741.046860231305</v>
-      </c>
-      <c r="CP62" s="2">
-        <f t="shared" si="19"/>
-        <v>17563.636391628992</v>
-      </c>
-      <c r="CQ62" s="2">
-        <f t="shared" si="19"/>
-        <v>17388.0000277127</v>
-      </c>
-      <c r="CR62" s="2">
-        <f t="shared" si="19"/>
-        <v>17214.120027435572</v>
-      </c>
-      <c r="CS62" s="2">
-        <f t="shared" si="19"/>
-        <v>17041.978827161216</v>
-      </c>
-      <c r="CT62" s="2">
-        <f t="shared" si="19"/>
-        <v>16871.559038889605</v>
-      </c>
-      <c r="CU62" s="2">
-        <f t="shared" si="19"/>
-        <v>16702.843448500709</v>
-      </c>
-      <c r="CV62" s="2">
-        <f t="shared" si="19"/>
-        <v>16535.815014015701</v>
-      </c>
-      <c r="CW62" s="2">
-        <f t="shared" si="19"/>
-        <v>16370.456863875545</v>
-      </c>
-      <c r="CX62" s="2">
-        <f t="shared" si="19"/>
-        <v>16206.752295236789</v>
-      </c>
-      <c r="CY62" s="2">
-        <f t="shared" si="19"/>
-        <v>16044.684772284421</v>
-      </c>
-      <c r="CZ62" s="2">
-        <f t="shared" si="19"/>
-        <v>15884.237924561578</v>
-      </c>
-      <c r="DA62" s="2">
-        <f t="shared" si="19"/>
-        <v>15725.395545315961</v>
-      </c>
-      <c r="DB62" s="2">
-        <f t="shared" si="19"/>
-        <v>15568.141589862802</v>
-      </c>
-      <c r="DC62" s="2">
-        <f t="shared" si="19"/>
-        <v>15412.460173964173</v>
-      </c>
-      <c r="DD62" s="2">
-        <f t="shared" si="19"/>
-        <v>15258.335572224531</v>
-      </c>
-      <c r="DE62" s="2">
-        <f t="shared" si="19"/>
-        <v>15105.752216502286</v>
-      </c>
-      <c r="DF62" s="2">
-        <f t="shared" si="19"/>
-        <v>14954.694694337262</v>
-      </c>
-      <c r="DG62" s="2">
-        <f t="shared" si="19"/>
-        <v>14805.14774739389</v>
-      </c>
-      <c r="DH62" s="2">
-        <f t="shared" si="19"/>
-        <v>14657.096269919952</v>
-      </c>
-      <c r="DI62" s="2">
-        <f t="shared" si="19"/>
-        <v>14510.525307220752</v>
-      </c>
-      <c r="DJ62" s="2">
-        <f t="shared" si="19"/>
-        <v>14365.420054148544</v>
-      </c>
-      <c r="DK62" s="2">
-        <f t="shared" si="19"/>
-        <v>14221.765853607059</v>
-      </c>
-      <c r="DL62" s="2">
-        <f t="shared" si="19"/>
-        <v>14079.548195070989</v>
-      </c>
-      <c r="DM62" s="2">
-        <f t="shared" ref="DM62:DR62" si="20">DL62*(1+$W$65)</f>
-        <v>13938.752713120279</v>
-      </c>
-      <c r="DN62" s="2">
-        <f t="shared" si="20"/>
-        <v>13799.365185989076</v>
-      </c>
-      <c r="DO62" s="2">
-        <f t="shared" si="20"/>
-        <v>13661.371534129185</v>
-      </c>
-      <c r="DP62" s="2">
-        <f t="shared" si="20"/>
-        <v>13524.757818787892</v>
-      </c>
-      <c r="DQ62" s="2">
-        <f t="shared" si="20"/>
-        <v>13389.510240600013</v>
-      </c>
-      <c r="DR62" s="2">
-        <f t="shared" si="20"/>
-        <v>13255.615138194013</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="63" spans="2:122" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L63" s="2">
-        <v>5733</v>
-      </c>
-      <c r="M63" s="2">
-        <v>5709</v>
-      </c>
-      <c r="N63" s="2">
-        <v>5700</v>
-      </c>
-      <c r="O63" s="2">
-        <f>N63</f>
-        <v>5700</v>
-      </c>
-      <c r="P63" s="2">
-        <f t="shared" ref="P63:T63" si="21">O63</f>
-        <v>5700</v>
-      </c>
-      <c r="Q63" s="2">
-        <f t="shared" si="21"/>
-        <v>5700</v>
-      </c>
-      <c r="R63" s="2">
-        <f t="shared" si="21"/>
-        <v>5700</v>
-      </c>
-      <c r="S63" s="2">
-        <f t="shared" si="21"/>
-        <v>5700</v>
-      </c>
-      <c r="T63" s="2">
-        <f t="shared" si="21"/>
-        <v>5700</v>
+        <v>32</v>
+      </c>
+      <c r="L63" s="1">
+        <f>L61/L62</f>
+        <v>8.0226757369614514</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" ref="M63:N63" si="18">M61/M62</f>
+        <v>2.9950954633035556</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="18"/>
+        <v>4.0101754385964909</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" ref="O63" si="19">O61/O62</f>
+        <v>3.4104364</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" ref="P63" si="20">P61/P62</f>
+        <v>3.6065794449439998</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" ref="Q63" si="21">Q61/Q62</f>
+        <v>3.8115214320853066</v>
+      </c>
+      <c r="R63" s="1">
+        <f t="shared" ref="R63" si="22">R61/R62</f>
+        <v>4.025629532509388</v>
+      </c>
+      <c r="S63" s="1">
+        <f t="shared" ref="S63" si="23">S61/S62</f>
+        <v>4.2492858469509569</v>
+      </c>
+      <c r="T63" s="1">
+        <f t="shared" ref="T63" si="24">T61/T62</f>
+        <v>4.4828880068551227</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W63" s="5">
+        <v>0.02</v>
       </c>
     </row>
     <row r="64" spans="2:122" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="V64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W64" s="5">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L64" s="1">
-        <f>L62/L63</f>
-        <v>7.8564451421594281</v>
-      </c>
-      <c r="M64" s="1">
-        <f t="shared" ref="M64:N64" si="22">M62/M63</f>
-        <v>2.9611140304781922</v>
-      </c>
-      <c r="N64" s="1">
-        <f t="shared" si="22"/>
-        <v>3.9912280701754388</v>
-      </c>
-      <c r="O64" s="1">
-        <f t="shared" ref="O64" si="23">O62/O63</f>
-        <v>4.8150843999999999</v>
-      </c>
-      <c r="P64" s="1">
-        <f t="shared" ref="P64" si="24">P62/P63</f>
-        <v>5.119433147024</v>
-      </c>
-      <c r="Q64" s="1">
-        <f t="shared" ref="Q64" si="25">Q62/Q63</f>
-        <v>5.4377393000505032</v>
-      </c>
-      <c r="R64" s="1">
-        <f t="shared" ref="R64" si="26">R62/R63</f>
-        <v>5.7705896192793098</v>
-      </c>
-      <c r="S64" s="1">
-        <f t="shared" ref="S64" si="27">S62/S63</f>
-        <v>6.1185947896030068</v>
-      </c>
-      <c r="T64" s="1">
-        <f t="shared" ref="T64" si="28">T62/T63</f>
-        <v>6.482390384845071</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W64" s="5">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="V65" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W65" s="5">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M66" s="6">
+      <c r="M65" s="6">
         <f>M47/L47-1</f>
         <v>-0.41137632814430447</v>
       </c>
-      <c r="N66" s="6">
+      <c r="N65" s="6">
         <f>N47/M47-1</f>
         <v>6.8391711723813753E-2</v>
       </c>
-      <c r="O66" s="6">
-        <f t="shared" ref="O66:T66" si="29">O47/N47-1</f>
+      <c r="O65" s="6">
+        <f>O47/N47-1</f>
         <v>-1.7712606283496024E-2</v>
       </c>
-      <c r="P66" s="6">
-        <f t="shared" si="29"/>
+      <c r="P65" s="6">
+        <f>P47/O47-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Q66" s="6">
-        <f t="shared" si="29"/>
+      <c r="Q65" s="6">
+        <f>Q47/P47-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="R66" s="6">
-        <f t="shared" si="29"/>
+      <c r="R65" s="6">
+        <f>R47/Q47-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="S66" s="6">
-        <f t="shared" si="29"/>
+      <c r="S65" s="6">
+        <f>S47/R47-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="T66" s="6">
-        <f t="shared" si="29"/>
+      <c r="T65" s="6">
+        <f>T47/S47-1</f>
         <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W65" s="5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" s="5">
+        <f>L49/L47</f>
+        <v>0.66054855448480354</v>
+      </c>
+      <c r="M66" s="5">
+        <f>M49/M47</f>
+        <v>0.58098532424354365</v>
+      </c>
+      <c r="N66" s="5">
+        <f>N49/N47</f>
+        <v>0.71944300375626702</v>
+      </c>
+      <c r="O66" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="R66" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="S66" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="T66" s="5">
+        <v>0.65</v>
       </c>
       <c r="V66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W66" s="5">
-        <v>0.08</v>
+      <c r="W66" s="3">
+        <f>NPV(W65,O61:XFD61)+Main!K5-Main!K6</f>
+        <v>229100.0841003923</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L67" s="5">
-        <f>L49/L47</f>
-        <v>0.66054855448480354</v>
-      </c>
       <c r="M67" s="5">
-        <f t="shared" ref="M67:N67" si="30">M49/M47</f>
-        <v>0.58098532424354365</v>
-      </c>
-      <c r="N67" s="5">
-        <f t="shared" si="30"/>
-        <v>0.71944300375626702</v>
-      </c>
-      <c r="O67" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="P67" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="Q67" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="R67" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="S67" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="T67" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W67" s="3">
-        <f>NPV(W66,O62:XFD62)+Main!K5-Main!K6</f>
-        <v>352002.11878672574</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M68" s="5">
         <f>M50/L50-1</f>
         <v>7.9988301528112871E-2</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N67" s="5">
         <f>N50/M50-1</f>
         <v>-2.7757091598402672E-3</v>
       </c>
-      <c r="O68" s="5">
-        <f t="shared" ref="O68:T68" si="31">O50/N50-1</f>
+      <c r="O67" s="5">
+        <f>O50/N50-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="P68" s="5">
-        <f t="shared" si="31"/>
+      <c r="P67" s="5">
+        <f>P50/O50-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Q68" s="5">
-        <f t="shared" si="31"/>
+      <c r="Q67" s="5">
+        <f>Q50/P50-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="R68" s="5">
-        <f t="shared" si="31"/>
+      <c r="R67" s="5">
+        <f>R50/Q50-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="S68" s="5">
-        <f t="shared" si="31"/>
+      <c r="S67" s="5">
+        <f>S50/R50-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="T68" s="5">
-        <f t="shared" si="31"/>
+      <c r="T67" s="5">
+        <f>T50/S50-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="V68" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W68" s="1">
-        <f>W67/Main!K3</f>
-        <v>61.913717349456952</v>
+      <c r="V67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W67" s="1">
+        <f>W66/Main!K3</f>
+        <v>40.29645588674056</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M68" s="5"/>
+      <c r="W68" s="5">
+        <f>W67/Main!K2-1</f>
+        <v>0.72575828208739002</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M69" s="5"/>
-      <c r="W69" s="5">
-        <f>W68/Main!K2-1</f>
-        <v>1.6515510642165716</v>
+      <c r="B69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M69" s="2">
+        <f>M70-SUM(M86:M89)</f>
+        <v>-60189</v>
+      </c>
+      <c r="N69" s="2">
+        <f>N70-SUM(N86:N89)</f>
+        <v>-47277</v>
+      </c>
+      <c r="O69" s="2">
+        <f>N69+O61</f>
+        <v>-27837.51252</v>
+      </c>
+      <c r="P69" s="2">
+        <f t="shared" ref="P69:T69" si="25">O69+P61</f>
+        <v>-7280.0096838192003</v>
+      </c>
+      <c r="Q69" s="2">
+        <f t="shared" si="25"/>
+        <v>14445.662479067047</v>
+      </c>
+      <c r="R69" s="2">
+        <f t="shared" si="25"/>
+        <v>37391.750814370556</v>
+      </c>
+      <c r="S69" s="2">
+        <f t="shared" si="25"/>
+        <v>61612.680141991012</v>
+      </c>
+      <c r="T69" s="2">
+        <f t="shared" si="25"/>
+        <v>87165.141781065206</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M70" s="2">
-        <f>M71-SUM(M87:M90)</f>
-        <v>-60189</v>
+        <f>2853+9837</f>
+        <v>12690</v>
       </c>
       <c r="N70" s="2">
-        <f>N71-SUM(N87:N90)</f>
-        <v>-47277</v>
-      </c>
-      <c r="O70" s="2">
-        <f>N70+O62</f>
-        <v>-19831.018919999999</v>
-      </c>
-      <c r="P70" s="2">
-        <f t="shared" ref="P70:T70" si="32">O70+P62</f>
-        <v>9349.7500180368006</v>
-      </c>
-      <c r="Q70" s="2">
-        <f t="shared" si="32"/>
-        <v>40344.864028324664</v>
-      </c>
-      <c r="R70" s="2">
-        <f t="shared" si="32"/>
-        <v>73237.224858216738</v>
-      </c>
-      <c r="S70" s="2">
-        <f t="shared" si="32"/>
-        <v>108113.21515895388</v>
-      </c>
-      <c r="T70" s="2">
-        <f t="shared" si="32"/>
-        <v>145062.84035257078</v>
+        <f>1043+19434</f>
+        <v>20477</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="M71" s="2">
-        <f>2853+9837</f>
-        <v>12690</v>
+        <f>11566</f>
+        <v>11566</v>
       </c>
       <c r="N71" s="2">
-        <f>1043+19434</f>
-        <v>20477</v>
+        <f>11463</f>
+        <v>11463</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="M72" s="2">
-        <f>11566</f>
-        <v>11566</v>
+        <f>10189</f>
+        <v>10189</v>
       </c>
       <c r="N72" s="2">
-        <f>11463</f>
-        <v>11463</v>
+        <f>10851</f>
+        <v>10851</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M73" s="2">
-        <f>10189</f>
-        <v>10189</v>
+        <f>3978+3706</f>
+        <v>7684</v>
       </c>
       <c r="N73" s="2">
-        <f>10851</f>
-        <v>10851</v>
+        <f>3314+8662</f>
+        <v>11976</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
@@ -3219,12 +3191,12 @@
         <v>46</v>
       </c>
       <c r="M74" s="2">
-        <f>3978+3706</f>
-        <v>7684</v>
+        <f>11637+3731</f>
+        <v>15368</v>
       </c>
       <c r="N74" s="2">
-        <f>3314+8662</f>
-        <v>11976</v>
+        <f>217+2010</f>
+        <v>2227</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
@@ -3232,12 +3204,12 @@
         <v>47</v>
       </c>
       <c r="M75" s="2">
-        <f>11637+3731</f>
-        <v>15368</v>
+        <f>18940</f>
+        <v>18940</v>
       </c>
       <c r="N75" s="2">
-        <f>217+2010</f>
-        <v>2227</v>
+        <f>18393</f>
+        <v>18393</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
@@ -3245,12 +3217,12 @@
         <v>48</v>
       </c>
       <c r="M76" s="2">
-        <f>18940</f>
-        <v>18940</v>
+        <f>64900</f>
+        <v>64900</v>
       </c>
       <c r="N76" s="2">
-        <f>18393</f>
-        <v>18393</v>
+        <f>55411</f>
+        <v>55411</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
@@ -3258,64 +3230,64 @@
         <v>49</v>
       </c>
       <c r="M77" s="2">
-        <f>64900</f>
-        <v>64900</v>
+        <f>67783</f>
+        <v>67783</v>
       </c>
       <c r="N77" s="2">
-        <f>55411</f>
-        <v>55411</v>
+        <f>68527</f>
+        <v>68527</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M78" s="2">
-        <f>67783</f>
-        <v>67783</v>
+        <f>12471</f>
+        <v>12471</v>
       </c>
       <c r="N78" s="2">
-        <f>68527</f>
-        <v>68527</v>
+        <f>9814</f>
+        <v>9814</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M79" s="2">
-        <f>12471</f>
-        <v>12471</v>
+        <f>SUM(M70:M78)</f>
+        <v>221591</v>
       </c>
       <c r="N79" s="2">
-        <f>9814</f>
-        <v>9814</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M80" s="2">
-        <f>SUM(M71:M79)</f>
-        <v>221591</v>
-      </c>
-      <c r="N80" s="2">
-        <f>SUM(N71:N79)</f>
+        <f>SUM(N70:N78)</f>
         <v>209139</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M81" s="2">
+        <f>10350+6710+2372</f>
+        <v>19432</v>
+      </c>
+      <c r="N81" s="2">
+        <f>6946+5633+2437</f>
+        <v>15016</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M82" s="2">
-        <f>10350+6710+2372</f>
-        <v>19432</v>
+        <f>2349</f>
+        <v>2349</v>
       </c>
       <c r="N82" s="2">
-        <f>6946+5633+2437</f>
-        <v>15016</v>
+        <f>2910</f>
+        <v>2910</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
@@ -3323,12 +3295,12 @@
         <v>51</v>
       </c>
       <c r="M83" s="2">
-        <f>2349</f>
-        <v>2349</v>
+        <f>2776</f>
+        <v>2776</v>
       </c>
       <c r="N83" s="2">
-        <f>2910</f>
-        <v>2910</v>
+        <f>3838</f>
+        <v>3838</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
@@ -3336,12 +3308,12 @@
         <v>52</v>
       </c>
       <c r="M84" s="2">
-        <f>2776</f>
-        <v>2776</v>
+        <f>2700</f>
+        <v>2700</v>
       </c>
       <c r="N84" s="2">
-        <f>3838</f>
-        <v>3838</v>
+        <f>1511</f>
+        <v>1511</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
@@ -3349,38 +3321,38 @@
         <v>53</v>
       </c>
       <c r="M85" s="2">
-        <f>2700</f>
-        <v>2700</v>
+        <f>20537</f>
+        <v>20537</v>
       </c>
       <c r="N85" s="2">
-        <f>1511</f>
-        <v>1511</v>
+        <f>19720</f>
+        <v>19720</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="M86" s="2">
-        <f>20537</f>
-        <v>20537</v>
+        <f>61538</f>
+        <v>61538</v>
       </c>
       <c r="N86" s="2">
-        <f>19720</f>
-        <v>19720</v>
+        <f>57405</f>
+        <v>57405</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M87" s="2">
-        <f>61538</f>
-        <v>61538</v>
+        <f>2167</f>
+        <v>2167</v>
       </c>
       <c r="N87" s="2">
-        <f>57405</f>
-        <v>57405</v>
+        <f>2115</f>
+        <v>2115</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
@@ -3388,12 +3360,12 @@
         <v>55</v>
       </c>
       <c r="M88" s="2">
-        <f>2167</f>
-        <v>2167</v>
+        <f>640</f>
+        <v>640</v>
       </c>
       <c r="N88" s="2">
-        <f>2115</f>
-        <v>2115</v>
+        <f>2122</f>
+        <v>2122</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
@@ -3401,12 +3373,12 @@
         <v>56</v>
       </c>
       <c r="M89" s="2">
-        <f>640</f>
-        <v>640</v>
+        <f>8534</f>
+        <v>8534</v>
       </c>
       <c r="N89" s="2">
-        <f>2122</f>
-        <v>2122</v>
+        <f>6112</f>
+        <v>6112</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
@@ -3414,25 +3386,25 @@
         <v>57</v>
       </c>
       <c r="M90" s="2">
-        <f>8534</f>
-        <v>8534</v>
+        <f>SUM(M81:M89)</f>
+        <v>120673</v>
       </c>
       <c r="N90" s="2">
-        <f>6112</f>
-        <v>6112</v>
+        <f>SUM(N81:N89)</f>
+        <v>110749</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M91" s="2">
-        <f>SUM(M82:M90)</f>
-        <v>120673</v>
+        <f>M79-M90</f>
+        <v>100918</v>
       </c>
       <c r="N91" s="2">
-        <f>SUM(N82:N90)</f>
-        <v>110749</v>
+        <f>N79-N90</f>
+        <v>98390</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
@@ -3440,38 +3412,42 @@
         <v>60</v>
       </c>
       <c r="M92" s="2">
-        <f>M80-M91</f>
-        <v>100918</v>
+        <f>M90+M91</f>
+        <v>221591</v>
       </c>
       <c r="N92" s="2">
-        <f>N80-N91</f>
-        <v>98390</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
+        <f>N90+N91</f>
+        <v>209139</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M94" s="2">
+        <f>(M79-SUM(M76:M77))-M90</f>
+        <v>-31765</v>
+      </c>
+      <c r="N94" s="2">
+        <f>(N79-SUM(N76:N77))-N90</f>
+        <v>-25548</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M93" s="2">
-        <f>M91+M92</f>
-        <v>221591</v>
-      </c>
-      <c r="N93" s="2">
-        <f>N91+N92</f>
-        <v>209139</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M95" s="2">
-        <f>(M80-SUM(M77:M78))-M91</f>
-        <v>-31765</v>
-      </c>
-      <c r="N95" s="2">
-        <f>(N80-SUM(N77:N78))-N91</f>
-        <v>-25548</v>
+      <c r="L96" s="2">
+        <f>29267</f>
+        <v>29267</v>
+      </c>
+      <c r="M96" s="2">
+        <f>8700</f>
+        <v>8700</v>
+      </c>
+      <c r="N96" s="2">
+        <f>12744</f>
+        <v>12744</v>
       </c>
     </row>
     <row r="97" spans="2:122" x14ac:dyDescent="0.2">
@@ -3479,16 +3455,15 @@
         <v>62</v>
       </c>
       <c r="L97" s="2">
-        <f>29267</f>
-        <v>29267</v>
+        <f>3236</f>
+        <v>3236</v>
       </c>
       <c r="M97" s="2">
-        <f>8700</f>
-        <v>8700</v>
+        <f>3907</f>
+        <v>3907</v>
       </c>
       <c r="N97" s="2">
-        <f>12744</f>
-        <v>12744</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="98" spans="2:122" x14ac:dyDescent="0.2">
@@ -3496,547 +3471,531 @@
         <v>63</v>
       </c>
       <c r="L98" s="2">
-        <f>3236</f>
-        <v>3236</v>
+        <f>L96-L97</f>
+        <v>26031</v>
       </c>
       <c r="M98" s="2">
-        <f>3907</f>
-        <v>3907</v>
+        <f t="shared" ref="M98:N98" si="26">M96-M97</f>
+        <v>4793</v>
       </c>
       <c r="N98" s="2">
-        <v>2909</v>
-      </c>
-    </row>
-    <row r="99" spans="2:122" x14ac:dyDescent="0.2">
-      <c r="B99" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L99" s="2">
-        <f>L97-L98</f>
-        <v>26031</v>
-      </c>
-      <c r="M99" s="2">
-        <f t="shared" ref="M99:N99" si="33">M97-M98</f>
-        <v>4793</v>
-      </c>
-      <c r="N99" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="26"/>
         <v>9835</v>
       </c>
-      <c r="O99" s="2">
-        <f>O101*O47</f>
+      <c r="O98" s="2">
+        <f>O100*O47</f>
         <v>15625</v>
       </c>
-      <c r="P99" s="2">
-        <f t="shared" ref="P99:T99" si="34">P101*P47</f>
+      <c r="P98" s="2">
+        <f>P100*P47</f>
         <v>16250</v>
       </c>
-      <c r="Q99" s="2">
-        <f t="shared" si="34"/>
+      <c r="Q98" s="2">
+        <f>Q100*Q47</f>
         <v>16900</v>
       </c>
-      <c r="R99" s="2">
-        <f t="shared" si="34"/>
+      <c r="R98" s="2">
+        <f>R100*R47</f>
         <v>17576</v>
       </c>
-      <c r="S99" s="2">
-        <f t="shared" si="34"/>
+      <c r="S98" s="2">
+        <f>S100*S47</f>
         <v>18279.04</v>
       </c>
-      <c r="T99" s="2">
-        <f t="shared" si="34"/>
+      <c r="T98" s="2">
+        <f>T100*T47</f>
         <v>19010.2016</v>
       </c>
-      <c r="U99" s="2">
-        <f>T99*(1+$W$65)</f>
+      <c r="U98" s="2">
+        <f>T98*(1+$W$64)</f>
         <v>18820.099584</v>
       </c>
-      <c r="V99" s="2">
-        <f t="shared" ref="V99:CG99" si="35">U99*(1+$W$65)</f>
+      <c r="V98" s="2">
+        <f t="shared" ref="V98:CG98" si="27">U98*(1+$W$64)</f>
         <v>18631.898588159998</v>
       </c>
-      <c r="W99" s="2">
-        <f t="shared" si="35"/>
+      <c r="W98" s="2">
+        <f t="shared" si="27"/>
         <v>18445.579602278398</v>
       </c>
-      <c r="X99" s="2">
-        <f t="shared" si="35"/>
+      <c r="X98" s="2">
+        <f t="shared" si="27"/>
         <v>18261.123806255615</v>
       </c>
-      <c r="Y99" s="2">
-        <f t="shared" si="35"/>
+      <c r="Y98" s="2">
+        <f t="shared" si="27"/>
         <v>18078.512568193059</v>
       </c>
-      <c r="Z99" s="2">
-        <f t="shared" si="35"/>
+      <c r="Z98" s="2">
+        <f t="shared" si="27"/>
         <v>17897.727442511128</v>
       </c>
-      <c r="AA99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AA98" s="2">
+        <f t="shared" si="27"/>
         <v>17718.750168086015</v>
       </c>
-      <c r="AB99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AB98" s="2">
+        <f t="shared" si="27"/>
         <v>17541.562666405156</v>
       </c>
-      <c r="AC99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AC98" s="2">
+        <f t="shared" si="27"/>
         <v>17366.147039741103</v>
       </c>
-      <c r="AD99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AD98" s="2">
+        <f t="shared" si="27"/>
         <v>17192.485569343691</v>
       </c>
-      <c r="AE99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AE98" s="2">
+        <f t="shared" si="27"/>
         <v>17020.560713650255</v>
       </c>
-      <c r="AF99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AF98" s="2">
+        <f t="shared" si="27"/>
         <v>16850.355106513751</v>
       </c>
-      <c r="AG99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AG98" s="2">
+        <f t="shared" si="27"/>
         <v>16681.851555448615</v>
       </c>
-      <c r="AH99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AH98" s="2">
+        <f t="shared" si="27"/>
         <v>16515.03303989413</v>
       </c>
-      <c r="AI99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AI98" s="2">
+        <f t="shared" si="27"/>
         <v>16349.882709495188</v>
       </c>
-      <c r="AJ99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AJ98" s="2">
+        <f t="shared" si="27"/>
         <v>16186.383882400236</v>
       </c>
-      <c r="AK99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AK98" s="2">
+        <f t="shared" si="27"/>
         <v>16024.520043576233</v>
       </c>
-      <c r="AL99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AL98" s="2">
+        <f t="shared" si="27"/>
         <v>15864.274843140471</v>
       </c>
-      <c r="AM99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AM98" s="2">
+        <f t="shared" si="27"/>
         <v>15705.632094709066</v>
       </c>
-      <c r="AN99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AN98" s="2">
+        <f t="shared" si="27"/>
         <v>15548.575773761975</v>
       </c>
-      <c r="AO99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AO98" s="2">
+        <f t="shared" si="27"/>
         <v>15393.090016024355</v>
       </c>
-      <c r="AP99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AP98" s="2">
+        <f t="shared" si="27"/>
         <v>15239.159115864111</v>
       </c>
-      <c r="AQ99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AQ98" s="2">
+        <f t="shared" si="27"/>
         <v>15086.76752470547</v>
       </c>
-      <c r="AR99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AR98" s="2">
+        <f t="shared" si="27"/>
         <v>14935.899849458416</v>
       </c>
-      <c r="AS99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AS98" s="2">
+        <f t="shared" si="27"/>
         <v>14786.540850963831</v>
       </c>
-      <c r="AT99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AT98" s="2">
+        <f t="shared" si="27"/>
         <v>14638.675442454192</v>
       </c>
-      <c r="AU99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AU98" s="2">
+        <f t="shared" si="27"/>
         <v>14492.28868802965</v>
       </c>
-      <c r="AV99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AV98" s="2">
+        <f t="shared" si="27"/>
         <v>14347.365801149354</v>
       </c>
-      <c r="AW99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AW98" s="2">
+        <f t="shared" si="27"/>
         <v>14203.89214313786</v>
       </c>
-      <c r="AX99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AX98" s="2">
+        <f t="shared" si="27"/>
         <v>14061.853221706482</v>
       </c>
-      <c r="AY99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AY98" s="2">
+        <f t="shared" si="27"/>
         <v>13921.234689489418</v>
       </c>
-      <c r="AZ99" s="2">
-        <f t="shared" si="35"/>
+      <c r="AZ98" s="2">
+        <f t="shared" si="27"/>
         <v>13782.022342594524</v>
       </c>
-      <c r="BA99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BA98" s="2">
+        <f t="shared" si="27"/>
         <v>13644.202119168578</v>
       </c>
-      <c r="BB99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BB98" s="2">
+        <f t="shared" si="27"/>
         <v>13507.760097976892</v>
       </c>
-      <c r="BC99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BC98" s="2">
+        <f t="shared" si="27"/>
         <v>13372.682496997124</v>
       </c>
-      <c r="BD99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BD98" s="2">
+        <f t="shared" si="27"/>
         <v>13238.955672027152</v>
       </c>
-      <c r="BE99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BE98" s="2">
+        <f t="shared" si="27"/>
         <v>13106.566115306881</v>
       </c>
-      <c r="BF99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BF98" s="2">
+        <f t="shared" si="27"/>
         <v>12975.500454153813</v>
       </c>
-      <c r="BG99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BG98" s="2">
+        <f t="shared" si="27"/>
         <v>12845.745449612275</v>
       </c>
-      <c r="BH99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BH98" s="2">
+        <f t="shared" si="27"/>
         <v>12717.287995116152</v>
       </c>
-      <c r="BI99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BI98" s="2">
+        <f t="shared" si="27"/>
         <v>12590.11511516499</v>
       </c>
-      <c r="BJ99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BJ98" s="2">
+        <f t="shared" si="27"/>
         <v>12464.213964013341</v>
       </c>
-      <c r="BK99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BK98" s="2">
+        <f t="shared" si="27"/>
         <v>12339.571824373208</v>
       </c>
-      <c r="BL99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BL98" s="2">
+        <f t="shared" si="27"/>
         <v>12216.176106129476</v>
       </c>
-      <c r="BM99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BM98" s="2">
+        <f t="shared" si="27"/>
         <v>12094.014345068181</v>
       </c>
-      <c r="BN99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BN98" s="2">
+        <f t="shared" si="27"/>
         <v>11973.074201617499</v>
       </c>
-      <c r="BO99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BO98" s="2">
+        <f t="shared" si="27"/>
         <v>11853.343459601325</v>
       </c>
-      <c r="BP99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BP98" s="2">
+        <f t="shared" si="27"/>
         <v>11734.810025005312</v>
       </c>
-      <c r="BQ99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BQ98" s="2">
+        <f t="shared" si="27"/>
         <v>11617.461924755258</v>
       </c>
-      <c r="BR99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BR98" s="2">
+        <f t="shared" si="27"/>
         <v>11501.287305507705</v>
       </c>
-      <c r="BS99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BS98" s="2">
+        <f t="shared" si="27"/>
         <v>11386.274432452628</v>
       </c>
-      <c r="BT99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BT98" s="2">
+        <f t="shared" si="27"/>
         <v>11272.411688128102</v>
       </c>
-      <c r="BU99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BU98" s="2">
+        <f t="shared" si="27"/>
         <v>11159.687571246821</v>
       </c>
-      <c r="BV99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BV98" s="2">
+        <f t="shared" si="27"/>
         <v>11048.090695534353</v>
       </c>
-      <c r="BW99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BW98" s="2">
+        <f t="shared" si="27"/>
         <v>10937.60978857901</v>
       </c>
-      <c r="BX99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BX98" s="2">
+        <f t="shared" si="27"/>
         <v>10828.23369069322</v>
       </c>
-      <c r="BY99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BY98" s="2">
+        <f t="shared" si="27"/>
         <v>10719.951353786288</v>
       </c>
-      <c r="BZ99" s="2">
-        <f t="shared" si="35"/>
+      <c r="BZ98" s="2">
+        <f t="shared" si="27"/>
         <v>10612.751840248424</v>
       </c>
-      <c r="CA99" s="2">
-        <f t="shared" si="35"/>
+      <c r="CA98" s="2">
+        <f t="shared" si="27"/>
         <v>10506.62432184594</v>
       </c>
-      <c r="CB99" s="2">
-        <f t="shared" si="35"/>
+      <c r="CB98" s="2">
+        <f t="shared" si="27"/>
         <v>10401.55807862748</v>
       </c>
-      <c r="CC99" s="2">
-        <f t="shared" si="35"/>
+      <c r="CC98" s="2">
+        <f t="shared" si="27"/>
         <v>10297.542497841205</v>
       </c>
-      <c r="CD99" s="2">
-        <f t="shared" si="35"/>
+      <c r="CD98" s="2">
+        <f t="shared" si="27"/>
         <v>10194.567072862792</v>
       </c>
-      <c r="CE99" s="2">
-        <f t="shared" si="35"/>
+      <c r="CE98" s="2">
+        <f t="shared" si="27"/>
         <v>10092.621402134164</v>
       </c>
-      <c r="CF99" s="2">
-        <f t="shared" si="35"/>
+      <c r="CF98" s="2">
+        <f t="shared" si="27"/>
         <v>9991.6951881128225</v>
       </c>
-      <c r="CG99" s="2">
-        <f t="shared" si="35"/>
+      <c r="CG98" s="2">
+        <f t="shared" si="27"/>
         <v>9891.7782362316939</v>
       </c>
-      <c r="CH99" s="2">
-        <f t="shared" ref="CH99:DR99" si="36">CG99*(1+$W$65)</f>
+      <c r="CH98" s="2">
+        <f t="shared" ref="CH98:DR98" si="28">CG98*(1+$W$64)</f>
         <v>9792.8604538693762</v>
       </c>
-      <c r="CI99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CI98" s="2">
+        <f t="shared" si="28"/>
         <v>9694.9318493306819</v>
       </c>
-      <c r="CJ99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CJ98" s="2">
+        <f t="shared" si="28"/>
         <v>9597.9825308373747</v>
       </c>
-      <c r="CK99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CK98" s="2">
+        <f t="shared" si="28"/>
         <v>9502.0027055290011</v>
       </c>
-      <c r="CL99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CL98" s="2">
+        <f t="shared" si="28"/>
         <v>9406.9826784737106</v>
       </c>
-      <c r="CM99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CM98" s="2">
+        <f t="shared" si="28"/>
         <v>9312.9128516889741</v>
       </c>
-      <c r="CN99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CN98" s="2">
+        <f t="shared" si="28"/>
         <v>9219.7837231720841</v>
       </c>
-      <c r="CO99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CO98" s="2">
+        <f t="shared" si="28"/>
         <v>9127.5858859403634</v>
       </c>
-      <c r="CP99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CP98" s="2">
+        <f t="shared" si="28"/>
         <v>9036.3100270809591</v>
       </c>
-      <c r="CQ99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CQ98" s="2">
+        <f t="shared" si="28"/>
         <v>8945.9469268101493</v>
       </c>
-      <c r="CR99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CR98" s="2">
+        <f t="shared" si="28"/>
         <v>8856.4874575420472</v>
       </c>
-      <c r="CS99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CS98" s="2">
+        <f t="shared" si="28"/>
         <v>8767.9225829666266</v>
       </c>
-      <c r="CT99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CT98" s="2">
+        <f t="shared" si="28"/>
         <v>8680.2433571369602</v>
       </c>
-      <c r="CU99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CU98" s="2">
+        <f t="shared" si="28"/>
         <v>8593.4409235655912</v>
       </c>
-      <c r="CV99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CV98" s="2">
+        <f t="shared" si="28"/>
         <v>8507.5065143299344</v>
       </c>
-      <c r="CW99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CW98" s="2">
+        <f t="shared" si="28"/>
         <v>8422.4314491866353</v>
       </c>
-      <c r="CX99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CX98" s="2">
+        <f t="shared" si="28"/>
         <v>8338.2071346947687</v>
       </c>
-      <c r="CY99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CY98" s="2">
+        <f t="shared" si="28"/>
         <v>8254.8250633478201</v>
       </c>
-      <c r="CZ99" s="2">
-        <f t="shared" si="36"/>
+      <c r="CZ98" s="2">
+        <f t="shared" si="28"/>
         <v>8172.2768127143418</v>
       </c>
-      <c r="DA99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DA98" s="2">
+        <f t="shared" si="28"/>
         <v>8090.5540445871984</v>
       </c>
-      <c r="DB99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DB98" s="2">
+        <f t="shared" si="28"/>
         <v>8009.6485041413262</v>
       </c>
-      <c r="DC99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DC98" s="2">
+        <f t="shared" si="28"/>
         <v>7929.5520190999132</v>
       </c>
-      <c r="DD99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DD98" s="2">
+        <f t="shared" si="28"/>
         <v>7850.2564989089142</v>
       </c>
-      <c r="DE99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DE98" s="2">
+        <f t="shared" si="28"/>
         <v>7771.7539339198247</v>
       </c>
-      <c r="DF99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DF98" s="2">
+        <f t="shared" si="28"/>
         <v>7694.0363945806266</v>
       </c>
-      <c r="DG99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DG98" s="2">
+        <f t="shared" si="28"/>
         <v>7617.0960306348206</v>
       </c>
-      <c r="DH99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DH98" s="2">
+        <f t="shared" si="28"/>
         <v>7540.9250703284724</v>
       </c>
-      <c r="DI99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DI98" s="2">
+        <f t="shared" si="28"/>
         <v>7465.5158196251878</v>
       </c>
-      <c r="DJ99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DJ98" s="2">
+        <f t="shared" si="28"/>
         <v>7390.8606614289356</v>
       </c>
-      <c r="DK99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DK98" s="2">
+        <f t="shared" si="28"/>
         <v>7316.9520548146465</v>
       </c>
-      <c r="DL99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DL98" s="2">
+        <f t="shared" si="28"/>
         <v>7243.7825342665001</v>
       </c>
-      <c r="DM99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DM98" s="2">
+        <f t="shared" si="28"/>
         <v>7171.3447089238352</v>
       </c>
-      <c r="DN99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DN98" s="2">
+        <f t="shared" si="28"/>
         <v>7099.6312618345964</v>
       </c>
-      <c r="DO99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DO98" s="2">
+        <f t="shared" si="28"/>
         <v>7028.6349492162508</v>
       </c>
-      <c r="DP99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DP98" s="2">
+        <f t="shared" si="28"/>
         <v>6958.3485997240887</v>
       </c>
-      <c r="DQ99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DQ98" s="2">
+        <f t="shared" si="28"/>
         <v>6888.7651137268476</v>
       </c>
-      <c r="DR99" s="2">
-        <f t="shared" si="36"/>
+      <c r="DR98" s="2">
+        <f t="shared" si="28"/>
         <v>6819.8774625895794</v>
       </c>
     </row>
+    <row r="100" spans="2:122" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L100" s="5">
+        <f>L98/L47</f>
+        <v>0.2572868791697554</v>
+      </c>
+      <c r="M100" s="5">
+        <f>M98/M47</f>
+        <v>8.048157974275448E-2</v>
+      </c>
+      <c r="N100" s="5">
+        <f>N98/N47</f>
+        <v>0.15457274427522907</v>
+      </c>
+      <c r="O100" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="Q100" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="R100" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="S100" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="T100" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
     <row r="101" spans="2:122" x14ac:dyDescent="0.2">
-      <c r="B101" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L101" s="5">
-        <f>L99/L47</f>
-        <v>0.2572868791697554</v>
-      </c>
-      <c r="M101" s="5">
-        <f t="shared" ref="M101:N101" si="37">M99/M47</f>
-        <v>8.048157974275448E-2</v>
-      </c>
-      <c r="N101" s="5">
-        <f t="shared" si="37"/>
-        <v>0.15457274427522907</v>
-      </c>
-      <c r="O101" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="P101" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="Q101" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="R101" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="S101" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="T101" s="5">
-        <v>0.25</v>
+      <c r="M101" s="5"/>
+      <c r="V101" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W101" s="5">
+        <v>0.02</v>
       </c>
     </row>
     <row r="102" spans="2:122" x14ac:dyDescent="0.2">
-      <c r="M102" s="5"/>
       <c r="V102" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W102" s="5">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="103" spans="2:122" x14ac:dyDescent="0.2">
       <c r="V103" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W103" s="5">
-        <v>-0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="104" spans="2:122" x14ac:dyDescent="0.2">
       <c r="V104" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W104" s="5">
-        <v>0.08</v>
+      <c r="W104" s="3">
+        <f>NPV(W103,O98:DR98)+Main!K5-Main!K6</f>
+        <v>160586.80042392452</v>
       </c>
     </row>
     <row r="105" spans="2:122" x14ac:dyDescent="0.2">
       <c r="V105" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W105" s="3">
-        <f>NPV(W104,O99:DR99)+Main!K5-Main!K6</f>
-        <v>160586.80042392452</v>
+        <v>44</v>
+      </c>
+      <c r="W105" s="1">
+        <f>W104/Main!K3</f>
+        <v>28.245641832413472</v>
       </c>
     </row>
     <row r="106" spans="2:122" x14ac:dyDescent="0.2">
-      <c r="V106" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W106" s="1">
-        <f>W105/Main!K3</f>
-        <v>28.245641832413472</v>
-      </c>
-    </row>
-    <row r="107" spans="2:122" x14ac:dyDescent="0.2">
-      <c r="W107" s="5">
-        <f>W106/Main!K2-1</f>
+      <c r="W106" s="5">
+        <f>W105/Main!K2-1</f>
         <v>0.20966346177359618</v>
       </c>
     </row>

--- a/PFE.xlsx
+++ b/PFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D763937A-EF5B-45E1-B6CE-089AABE216F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C13EE-4300-46AF-A377-BEAA31A6777A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{77BD1193-36D1-453A-8507-DD0E4F65FF43}"/>
+    <workbookView xWindow="4395" yWindow="345" windowWidth="21540" windowHeight="14760" activeTab="1" xr2:uid="{77BD1193-36D1-453A-8507-DD0E4F65FF43}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1249,10 +1249,10 @@
   <dimension ref="A1:DR106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V65" sqref="V65"/>
+      <selection pane="bottomRight" activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2010,8 +2010,8 @@
         <v>73116.160000000003</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="2"/>
-        <v>76040.806400000001</v>
+        <f>S47*0.7</f>
+        <v>51181.311999999998</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -2028,28 +2028,28 @@
         <v>17851</v>
       </c>
       <c r="O48" s="2">
-        <f>O47*(1-O66)</f>
+        <f t="shared" ref="O48:T48" si="3">O47*(1-O66)</f>
         <v>21875</v>
       </c>
       <c r="P48" s="2">
-        <f>P47*(1-P66)</f>
+        <f t="shared" si="3"/>
         <v>22750</v>
       </c>
       <c r="Q48" s="2">
-        <f>Q47*(1-Q66)</f>
+        <f t="shared" si="3"/>
         <v>23660</v>
       </c>
       <c r="R48" s="2">
-        <f>R47*(1-R66)</f>
+        <f t="shared" si="3"/>
         <v>24606.399999999998</v>
       </c>
       <c r="S48" s="2">
-        <f>S47*(1-S66)</f>
+        <f t="shared" si="3"/>
         <v>25590.655999999999</v>
       </c>
       <c r="T48" s="2">
-        <f>T47*(1-T66)</f>
-        <v>26614.28224</v>
+        <f t="shared" si="3"/>
+        <v>17913.459199999998</v>
       </c>
     </row>
     <row r="49" spans="2:122" x14ac:dyDescent="0.2">
@@ -2061,36 +2061,36 @@
         <v>66831</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" ref="M49:T49" si="3">M47-M48</f>
+        <f t="shared" ref="M49:T49" si="4">M47-M48</f>
         <v>34600</v>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45776</v>
       </c>
       <c r="O49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40625</v>
       </c>
       <c r="P49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42250</v>
       </c>
       <c r="Q49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43940</v>
       </c>
       <c r="R49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45697.600000000006</v>
       </c>
       <c r="S49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47525.504000000001</v>
       </c>
       <c r="T49" s="2">
-        <f t="shared" si="3"/>
-        <v>49426.524160000001</v>
+        <f t="shared" si="4"/>
+        <v>33267.852800000001</v>
       </c>
     </row>
     <row r="50" spans="2:122" x14ac:dyDescent="0.2">
@@ -2111,23 +2111,23 @@
         <v>15319.2</v>
       </c>
       <c r="P50" s="2">
-        <f t="shared" ref="P50:T50" si="4">O50*1.04</f>
+        <f t="shared" ref="P50:T50" si="5">O50*1.04</f>
         <v>15931.968000000001</v>
       </c>
       <c r="Q50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16569.246720000003</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17232.016588800005</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17921.297252352004</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18638.149142446084</v>
       </c>
     </row>
@@ -2204,27 +2204,27 @@
         <v>22915</v>
       </c>
       <c r="O55" s="2">
-        <f>SUM(O50:O54)</f>
+        <f t="shared" ref="O55:T55" si="6">SUM(O50:O54)</f>
         <v>15319.2</v>
       </c>
       <c r="P55" s="2">
-        <f>SUM(P50:P54)</f>
+        <f t="shared" si="6"/>
         <v>15931.968000000001</v>
       </c>
       <c r="Q55" s="2">
-        <f>SUM(Q50:Q54)</f>
+        <f t="shared" si="6"/>
         <v>16569.246720000003</v>
       </c>
       <c r="R55" s="2">
-        <f>SUM(R50:R54)</f>
+        <f t="shared" si="6"/>
         <v>17232.016588800005</v>
       </c>
       <c r="S55" s="2">
-        <f>SUM(S50:S54)</f>
+        <f t="shared" si="6"/>
         <v>17921.297252352004</v>
       </c>
       <c r="T55" s="2">
-        <f>SUM(T50:T54)</f>
+        <f t="shared" si="6"/>
         <v>18638.149142446084</v>
       </c>
     </row>
@@ -2233,40 +2233,40 @@
         <v>26</v>
       </c>
       <c r="L56" s="2">
-        <f>L49-L55</f>
+        <f t="shared" ref="L56:T56" si="7">L49-L55</f>
         <v>49357</v>
       </c>
       <c r="M56" s="2">
-        <f>M49-M55</f>
+        <f t="shared" si="7"/>
         <v>16023</v>
       </c>
       <c r="N56" s="2">
-        <f>N49-N55</f>
+        <f t="shared" si="7"/>
         <v>22861</v>
       </c>
       <c r="O56" s="2">
-        <f>O49-O55</f>
+        <f t="shared" si="7"/>
         <v>25305.8</v>
       </c>
       <c r="P56" s="2">
-        <f>P49-P55</f>
+        <f t="shared" si="7"/>
         <v>26318.031999999999</v>
       </c>
       <c r="Q56" s="2">
-        <f>Q49-Q55</f>
+        <f t="shared" si="7"/>
         <v>27370.753279999997</v>
       </c>
       <c r="R56" s="2">
-        <f>R49-R55</f>
+        <f t="shared" si="7"/>
         <v>28465.583411200001</v>
       </c>
       <c r="S56" s="2">
-        <f>S49-S55</f>
+        <f t="shared" si="7"/>
         <v>29604.206747647997</v>
       </c>
       <c r="T56" s="2">
-        <f>T49-T55</f>
-        <v>30788.375017553917</v>
+        <f t="shared" si="7"/>
+        <v>14629.703657553917</v>
       </c>
     </row>
     <row r="57" spans="2:122" x14ac:dyDescent="0.2">
@@ -2278,23 +2278,23 @@
         <v>-945.54</v>
       </c>
       <c r="P57" s="2">
-        <f t="shared" ref="P57:T57" si="5">O69*$W$63</f>
+        <f t="shared" ref="P57:T57" si="8">O69*$W$63</f>
         <v>-556.75025040000003</v>
       </c>
       <c r="Q57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-145.60019367638401</v>
       </c>
       <c r="R57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>288.91324958134095</v>
       </c>
       <c r="S57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>747.83501628741112</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1232.2536028398204</v>
       </c>
     </row>
@@ -2307,36 +2307,36 @@
         <v>49357</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" ref="M58:T58" si="6">M56+M57</f>
+        <f t="shared" ref="M58:T58" si="9">M56+M57</f>
         <v>16023</v>
       </c>
       <c r="N58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22861</v>
       </c>
       <c r="O58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24360.26</v>
       </c>
       <c r="P58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25761.281749599999</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>27225.153086323615</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28754.49666078134</v>
       </c>
       <c r="S58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>30352.041763935409</v>
       </c>
       <c r="T58" s="2">
-        <f t="shared" si="6"/>
-        <v>32020.628620393738</v>
+        <f t="shared" si="9"/>
+        <v>15861.957260393738</v>
       </c>
     </row>
     <row r="59" spans="2:122" x14ac:dyDescent="0.2">
@@ -2357,24 +2357,24 @@
         <v>4872.0519999999997</v>
       </c>
       <c r="P59" s="2">
-        <f t="shared" ref="P59:T59" si="7">P58*0.2</f>
+        <f t="shared" ref="P59:T59" si="10">P58*0.2</f>
         <v>5152.2563499200005</v>
       </c>
       <c r="Q59" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5445.0306172647233</v>
       </c>
       <c r="R59" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5750.8993321562684</v>
       </c>
       <c r="S59" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6070.4083527870825</v>
       </c>
       <c r="T59" s="2">
-        <f t="shared" si="7"/>
-        <v>6404.1257240787481</v>
+        <f t="shared" si="10"/>
+        <v>3172.3914520787475</v>
       </c>
     </row>
     <row r="60" spans="2:122" x14ac:dyDescent="0.2">
@@ -2395,24 +2395,24 @@
         <v>48.72052</v>
       </c>
       <c r="P60" s="2">
-        <f t="shared" ref="P60:T60" si="8">P58*0.002</f>
+        <f t="shared" ref="P60:T60" si="11">P58*0.002</f>
         <v>51.522563499199997</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>54.450306172647231</v>
       </c>
       <c r="R60" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>57.508993321562684</v>
       </c>
       <c r="S60" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60.704083527870822</v>
       </c>
       <c r="T60" s="2">
-        <f t="shared" si="8"/>
-        <v>64.041257240787473</v>
+        <f t="shared" si="11"/>
+        <v>31.723914520787478</v>
       </c>
     </row>
     <row r="61" spans="2:122" x14ac:dyDescent="0.2">
@@ -2424,444 +2424,444 @@
         <v>45994</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" ref="M61:Q61" si="9">M58-M59-M60</f>
+        <f t="shared" ref="M61:Q61" si="12">M58-M59-M60</f>
         <v>17099</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>22858</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>19439.48748</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>20557.5028361808</v>
       </c>
       <c r="Q61" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>21725.672162886247</v>
       </c>
       <c r="R61" s="2">
-        <f t="shared" ref="R61" si="10">R58-R59-R60</f>
+        <f t="shared" ref="R61" si="13">R58-R59-R60</f>
         <v>22946.08833530351</v>
       </c>
       <c r="S61" s="2">
-        <f t="shared" ref="S61" si="11">S58-S59-S60</f>
+        <f t="shared" ref="S61" si="14">S58-S59-S60</f>
         <v>24220.929327620455</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" ref="T61" si="12">T58-T59-T60</f>
-        <v>25552.461639074201</v>
+        <f t="shared" ref="T61" si="15">T58-T59-T60</f>
+        <v>12657.841893794202</v>
       </c>
       <c r="U61" s="2">
-        <f t="shared" ref="U61:AZ61" si="13">T61*(1+$W$64)</f>
-        <v>25296.937022683458</v>
+        <f t="shared" ref="U61:AZ61" si="16">T61*(1+$W$64)</f>
+        <v>12531.26347485626</v>
       </c>
       <c r="V61" s="2">
-        <f t="shared" si="13"/>
-        <v>25043.967652456624</v>
+        <f t="shared" si="16"/>
+        <v>12405.950840107696</v>
       </c>
       <c r="W61" s="2">
-        <f t="shared" si="13"/>
-        <v>24793.527975932058</v>
+        <f t="shared" si="16"/>
+        <v>12281.89133170662</v>
       </c>
       <c r="X61" s="2">
-        <f t="shared" si="13"/>
-        <v>24545.592696172738</v>
+        <f t="shared" si="16"/>
+        <v>12159.072418389553</v>
       </c>
       <c r="Y61" s="2">
-        <f t="shared" si="13"/>
-        <v>24300.136769211011</v>
+        <f t="shared" si="16"/>
+        <v>12037.481694205657</v>
       </c>
       <c r="Z61" s="2">
-        <f t="shared" si="13"/>
-        <v>24057.135401518899</v>
+        <f t="shared" si="16"/>
+        <v>11917.106877263601</v>
       </c>
       <c r="AA61" s="2">
-        <f t="shared" si="13"/>
-        <v>23816.564047503711</v>
+        <f t="shared" si="16"/>
+        <v>11797.935808490965</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" si="13"/>
-        <v>23578.398407028675</v>
+        <f t="shared" si="16"/>
+        <v>11679.956450406056</v>
       </c>
       <c r="AC61" s="2">
-        <f t="shared" si="13"/>
-        <v>23342.614422958388</v>
+        <f t="shared" si="16"/>
+        <v>11563.156885901995</v>
       </c>
       <c r="AD61" s="2">
-        <f t="shared" si="13"/>
-        <v>23109.188278728805</v>
+        <f t="shared" si="16"/>
+        <v>11447.525317042975</v>
       </c>
       <c r="AE61" s="2">
-        <f t="shared" si="13"/>
-        <v>22878.096395941517</v>
+        <f t="shared" si="16"/>
+        <v>11333.050063872544</v>
       </c>
       <c r="AF61" s="2">
-        <f t="shared" si="13"/>
-        <v>22649.315431982101</v>
+        <f t="shared" si="16"/>
+        <v>11219.719563233819</v>
       </c>
       <c r="AG61" s="2">
-        <f t="shared" si="13"/>
-        <v>22422.822277662279</v>
+        <f t="shared" si="16"/>
+        <v>11107.522367601481</v>
       </c>
       <c r="AH61" s="2">
-        <f t="shared" si="13"/>
-        <v>22198.594054885656</v>
+        <f t="shared" si="16"/>
+        <v>10996.447143925467</v>
       </c>
       <c r="AI61" s="2">
-        <f t="shared" si="13"/>
-        <v>21976.608114336799</v>
+        <f t="shared" si="16"/>
+        <v>10886.482672486212</v>
       </c>
       <c r="AJ61" s="2">
-        <f t="shared" si="13"/>
-        <v>21756.842033193432</v>
+        <f t="shared" si="16"/>
+        <v>10777.61784576135</v>
       </c>
       <c r="AK61" s="2">
-        <f t="shared" si="13"/>
-        <v>21539.273612861496</v>
+        <f t="shared" si="16"/>
+        <v>10669.841667303735</v>
       </c>
       <c r="AL61" s="2">
-        <f t="shared" si="13"/>
-        <v>21323.880876732881</v>
+        <f t="shared" si="16"/>
+        <v>10563.143250630697</v>
       </c>
       <c r="AM61" s="2">
-        <f t="shared" si="13"/>
-        <v>21110.642067965553</v>
+        <f t="shared" si="16"/>
+        <v>10457.511818124391</v>
       </c>
       <c r="AN61" s="2">
-        <f t="shared" si="13"/>
-        <v>20899.535647285898</v>
+        <f t="shared" si="16"/>
+        <v>10352.936699943146</v>
       </c>
       <c r="AO61" s="2">
-        <f t="shared" si="13"/>
-        <v>20690.540290813038</v>
+        <f t="shared" si="16"/>
+        <v>10249.407332943714</v>
       </c>
       <c r="AP61" s="2">
-        <f t="shared" si="13"/>
-        <v>20483.634887904907</v>
+        <f t="shared" si="16"/>
+        <v>10146.913259614277</v>
       </c>
       <c r="AQ61" s="2">
-        <f t="shared" si="13"/>
-        <v>20278.798539025858</v>
+        <f t="shared" si="16"/>
+        <v>10045.444127018134</v>
       </c>
       <c r="AR61" s="2">
-        <f t="shared" si="13"/>
-        <v>20076.010553635599</v>
+        <f t="shared" si="16"/>
+        <v>9944.9896857479525</v>
       </c>
       <c r="AS61" s="2">
-        <f t="shared" si="13"/>
-        <v>19875.250448099243</v>
+        <f t="shared" si="16"/>
+        <v>9845.5397888904736</v>
       </c>
       <c r="AT61" s="2">
-        <f t="shared" si="13"/>
-        <v>19676.497943618251</v>
+        <f t="shared" si="16"/>
+        <v>9747.0843910015683</v>
       </c>
       <c r="AU61" s="2">
-        <f t="shared" si="13"/>
-        <v>19479.732964182069</v>
+        <f t="shared" si="16"/>
+        <v>9649.6135470915524</v>
       </c>
       <c r="AV61" s="2">
-        <f t="shared" si="13"/>
-        <v>19284.935634540248</v>
+        <f t="shared" si="16"/>
+        <v>9553.1174116206366</v>
       </c>
       <c r="AW61" s="2">
-        <f t="shared" si="13"/>
-        <v>19092.086278194845</v>
+        <f t="shared" si="16"/>
+        <v>9457.5862375044308</v>
       </c>
       <c r="AX61" s="2">
-        <f t="shared" si="13"/>
-        <v>18901.165415412896</v>
+        <f t="shared" si="16"/>
+        <v>9363.0103751293864</v>
       </c>
       <c r="AY61" s="2">
-        <f t="shared" si="13"/>
-        <v>18712.153761258767</v>
+        <f t="shared" si="16"/>
+        <v>9269.3802713780933</v>
       </c>
       <c r="AZ61" s="2">
-        <f t="shared" si="13"/>
-        <v>18525.03222364618</v>
+        <f t="shared" si="16"/>
+        <v>9176.686468664313</v>
       </c>
       <c r="BA61" s="2">
-        <f t="shared" ref="BA61:CF61" si="14">AZ61*(1+$W$64)</f>
-        <v>18339.781901409719</v>
+        <f t="shared" ref="BA61:CF61" si="17">AZ61*(1+$W$64)</f>
+        <v>9084.9196039776689</v>
       </c>
       <c r="BB61" s="2">
-        <f t="shared" si="14"/>
-        <v>18156.38408239562</v>
+        <f t="shared" si="17"/>
+        <v>8994.070407937892</v>
       </c>
       <c r="BC61" s="2">
-        <f t="shared" si="14"/>
-        <v>17974.820241571662</v>
+        <f t="shared" si="17"/>
+        <v>8904.1297038585126</v>
       </c>
       <c r="BD61" s="2">
-        <f t="shared" si="14"/>
-        <v>17795.072039155944</v>
+        <f t="shared" si="17"/>
+        <v>8815.0884068199266</v>
       </c>
       <c r="BE61" s="2">
-        <f t="shared" si="14"/>
-        <v>17617.121318764384</v>
+        <f t="shared" si="17"/>
+        <v>8726.9375227517266</v>
       </c>
       <c r="BF61" s="2">
-        <f t="shared" si="14"/>
-        <v>17440.95010557674</v>
+        <f t="shared" si="17"/>
+        <v>8639.6681475242094</v>
       </c>
       <c r="BG61" s="2">
-        <f t="shared" si="14"/>
-        <v>17266.540604520971</v>
+        <f t="shared" si="17"/>
+        <v>8553.2714660489673</v>
       </c>
       <c r="BH61" s="2">
-        <f t="shared" si="14"/>
-        <v>17093.875198475762</v>
+        <f t="shared" si="17"/>
+        <v>8467.7387513884769</v>
       </c>
       <c r="BI61" s="2">
-        <f t="shared" si="14"/>
-        <v>16922.936446491003</v>
+        <f t="shared" si="17"/>
+        <v>8383.0613638745926</v>
       </c>
       <c r="BJ61" s="2">
-        <f t="shared" si="14"/>
-        <v>16753.707082026092</v>
+        <f t="shared" si="17"/>
+        <v>8299.2307502358472</v>
       </c>
       <c r="BK61" s="2">
-        <f t="shared" si="14"/>
-        <v>16586.170011205832</v>
+        <f t="shared" si="17"/>
+        <v>8216.2384427334891</v>
       </c>
       <c r="BL61" s="2">
-        <f t="shared" si="14"/>
-        <v>16420.308311093773</v>
+        <f t="shared" si="17"/>
+        <v>8134.0760583061538</v>
       </c>
       <c r="BM61" s="2">
-        <f t="shared" si="14"/>
-        <v>16256.105227982835</v>
+        <f t="shared" si="17"/>
+        <v>8052.7352977230921</v>
       </c>
       <c r="BN61" s="2">
-        <f t="shared" si="14"/>
-        <v>16093.544175703006</v>
+        <f t="shared" si="17"/>
+        <v>7972.2079447458609</v>
       </c>
       <c r="BO61" s="2">
-        <f t="shared" si="14"/>
-        <v>15932.608733945975</v>
+        <f t="shared" si="17"/>
+        <v>7892.4858652984021</v>
       </c>
       <c r="BP61" s="2">
-        <f t="shared" si="14"/>
-        <v>15773.282646606516</v>
+        <f t="shared" si="17"/>
+        <v>7813.5610066454183</v>
       </c>
       <c r="BQ61" s="2">
-        <f t="shared" si="14"/>
-        <v>15615.549820140452</v>
+        <f t="shared" si="17"/>
+        <v>7735.425396578964</v>
       </c>
       <c r="BR61" s="2">
-        <f t="shared" si="14"/>
-        <v>15459.394321939048</v>
+        <f t="shared" si="17"/>
+        <v>7658.0711426131738</v>
       </c>
       <c r="BS61" s="2">
-        <f t="shared" si="14"/>
-        <v>15304.800378719658</v>
+        <f t="shared" si="17"/>
+        <v>7581.4904311870423</v>
       </c>
       <c r="BT61" s="2">
-        <f t="shared" si="14"/>
-        <v>15151.752374932461</v>
+        <f t="shared" si="17"/>
+        <v>7505.6755268751722</v>
       </c>
       <c r="BU61" s="2">
-        <f t="shared" si="14"/>
-        <v>15000.234851183137</v>
+        <f t="shared" si="17"/>
+        <v>7430.6187716064205</v>
       </c>
       <c r="BV61" s="2">
-        <f t="shared" si="14"/>
-        <v>14850.232502671306</v>
+        <f t="shared" si="17"/>
+        <v>7356.3125838903561</v>
       </c>
       <c r="BW61" s="2">
-        <f t="shared" si="14"/>
-        <v>14701.730177644593</v>
+        <f t="shared" si="17"/>
+        <v>7282.7494580514522</v>
       </c>
       <c r="BX61" s="2">
-        <f t="shared" si="14"/>
-        <v>14554.712875868147</v>
+        <f t="shared" si="17"/>
+        <v>7209.921963470938</v>
       </c>
       <c r="BY61" s="2">
-        <f t="shared" si="14"/>
-        <v>14409.165747109464</v>
+        <f t="shared" si="17"/>
+        <v>7137.8227438362283</v>
       </c>
       <c r="BZ61" s="2">
-        <f t="shared" si="14"/>
-        <v>14265.074089638369</v>
+        <f t="shared" si="17"/>
+        <v>7066.4445163978662</v>
       </c>
       <c r="CA61" s="2">
-        <f t="shared" si="14"/>
-        <v>14122.423348741984</v>
+        <f t="shared" si="17"/>
+        <v>6995.7800712338876</v>
       </c>
       <c r="CB61" s="2">
-        <f t="shared" si="14"/>
-        <v>13981.199115254563</v>
+        <f t="shared" si="17"/>
+        <v>6925.8222705215485</v>
       </c>
       <c r="CC61" s="2">
-        <f t="shared" si="14"/>
-        <v>13841.387124102017</v>
+        <f t="shared" si="17"/>
+        <v>6856.5640478163332</v>
       </c>
       <c r="CD61" s="2">
-        <f t="shared" si="14"/>
-        <v>13702.973252860997</v>
+        <f t="shared" si="17"/>
+        <v>6787.9984073381702</v>
       </c>
       <c r="CE61" s="2">
-        <f t="shared" si="14"/>
-        <v>13565.943520332386</v>
+        <f t="shared" si="17"/>
+        <v>6720.1184232647884</v>
       </c>
       <c r="CF61" s="2">
-        <f t="shared" si="14"/>
-        <v>13430.284085129062</v>
+        <f t="shared" si="17"/>
+        <v>6652.9172390321401</v>
       </c>
       <c r="CG61" s="2">
-        <f t="shared" ref="CG61:DL61" si="15">CF61*(1+$W$64)</f>
-        <v>13295.981244277771</v>
+        <f t="shared" ref="CG61:DL61" si="18">CF61*(1+$W$64)</f>
+        <v>6586.388066641819</v>
       </c>
       <c r="CH61" s="2">
-        <f t="shared" si="15"/>
-        <v>13163.021431834994</v>
+        <f t="shared" si="18"/>
+        <v>6520.5241859754005</v>
       </c>
       <c r="CI61" s="2">
-        <f t="shared" si="15"/>
-        <v>13031.391217516644</v>
+        <f t="shared" si="18"/>
+        <v>6455.3189441156464</v>
       </c>
       <c r="CJ61" s="2">
-        <f t="shared" si="15"/>
-        <v>12901.077305341478</v>
+        <f t="shared" si="18"/>
+        <v>6390.7657546744895</v>
       </c>
       <c r="CK61" s="2">
-        <f t="shared" si="15"/>
-        <v>12772.066532288063</v>
+        <f t="shared" si="18"/>
+        <v>6326.8580971277443</v>
       </c>
       <c r="CL61" s="2">
-        <f t="shared" si="15"/>
-        <v>12644.345866965183</v>
+        <f t="shared" si="18"/>
+        <v>6263.5895161564667</v>
       </c>
       <c r="CM61" s="2">
-        <f t="shared" si="15"/>
-        <v>12517.902408295531</v>
+        <f t="shared" si="18"/>
+        <v>6200.9536209949019</v>
       </c>
       <c r="CN61" s="2">
-        <f t="shared" si="15"/>
-        <v>12392.723384212575</v>
+        <f t="shared" si="18"/>
+        <v>6138.9440847849528</v>
       </c>
       <c r="CO61" s="2">
-        <f t="shared" si="15"/>
-        <v>12268.79615037045</v>
+        <f t="shared" si="18"/>
+        <v>6077.5546439371028</v>
       </c>
       <c r="CP61" s="2">
-        <f t="shared" si="15"/>
-        <v>12146.108188866745</v>
+        <f t="shared" si="18"/>
+        <v>6016.7790974977315</v>
       </c>
       <c r="CQ61" s="2">
-        <f t="shared" si="15"/>
-        <v>12024.647106978078</v>
+        <f t="shared" si="18"/>
+        <v>5956.6113065227546</v>
       </c>
       <c r="CR61" s="2">
-        <f t="shared" si="15"/>
-        <v>11904.400635908298</v>
+        <f t="shared" si="18"/>
+        <v>5897.0451934575267</v>
       </c>
       <c r="CS61" s="2">
-        <f t="shared" si="15"/>
-        <v>11785.356629549215</v>
+        <f t="shared" si="18"/>
+        <v>5838.0747415229516</v>
       </c>
       <c r="CT61" s="2">
-        <f t="shared" si="15"/>
-        <v>11667.503063253722</v>
+        <f t="shared" si="18"/>
+        <v>5779.6939941077217</v>
       </c>
       <c r="CU61" s="2">
-        <f t="shared" si="15"/>
-        <v>11550.828032621184</v>
+        <f t="shared" si="18"/>
+        <v>5721.897054166644</v>
       </c>
       <c r="CV61" s="2">
-        <f t="shared" si="15"/>
-        <v>11435.319752294972</v>
+        <f t="shared" si="18"/>
+        <v>5664.6780836249773</v>
       </c>
       <c r="CW61" s="2">
-        <f t="shared" si="15"/>
-        <v>11320.966554772021</v>
+        <f t="shared" si="18"/>
+        <v>5608.0313027887278</v>
       </c>
       <c r="CX61" s="2">
-        <f t="shared" si="15"/>
-        <v>11207.756889224302</v>
+        <f t="shared" si="18"/>
+        <v>5551.9509897608405</v>
       </c>
       <c r="CY61" s="2">
-        <f t="shared" si="15"/>
-        <v>11095.679320332058</v>
+        <f t="shared" si="18"/>
+        <v>5496.4314798632322</v>
       </c>
       <c r="CZ61" s="2">
-        <f t="shared" si="15"/>
-        <v>10984.722527128737</v>
+        <f t="shared" si="18"/>
+        <v>5441.4671650645996</v>
       </c>
       <c r="DA61" s="2">
-        <f t="shared" si="15"/>
-        <v>10874.87530185745</v>
+        <f t="shared" si="18"/>
+        <v>5387.0524934139539</v>
       </c>
       <c r="DB61" s="2">
-        <f t="shared" si="15"/>
-        <v>10766.126548838874</v>
+        <f t="shared" si="18"/>
+        <v>5333.1819684798147</v>
       </c>
       <c r="DC61" s="2">
-        <f t="shared" si="15"/>
-        <v>10658.465283350486</v>
+        <f t="shared" si="18"/>
+        <v>5279.8501487950161</v>
       </c>
       <c r="DD61" s="2">
-        <f t="shared" si="15"/>
-        <v>10551.880630516982</v>
+        <f t="shared" si="18"/>
+        <v>5227.0516473070657</v>
       </c>
       <c r="DE61" s="2">
-        <f t="shared" si="15"/>
-        <v>10446.361824211812</v>
+        <f t="shared" si="18"/>
+        <v>5174.7811308339951</v>
       </c>
       <c r="DF61" s="2">
-        <f t="shared" si="15"/>
-        <v>10341.898205969694</v>
+        <f t="shared" si="18"/>
+        <v>5123.0333195256553</v>
       </c>
       <c r="DG61" s="2">
-        <f t="shared" si="15"/>
-        <v>10238.479223909997</v>
+        <f t="shared" si="18"/>
+        <v>5071.8029863303991</v>
       </c>
       <c r="DH61" s="2">
-        <f t="shared" si="15"/>
-        <v>10136.094431670897</v>
+        <f t="shared" si="18"/>
+        <v>5021.0849564670953</v>
       </c>
       <c r="DI61" s="2">
-        <f t="shared" si="15"/>
-        <v>10034.733487354188</v>
+        <f t="shared" si="18"/>
+        <v>4970.8741069024245</v>
       </c>
       <c r="DJ61" s="2">
-        <f t="shared" si="15"/>
-        <v>9934.3861524806453</v>
+        <f t="shared" si="18"/>
+        <v>4921.1653658333998</v>
       </c>
       <c r="DK61" s="2">
-        <f t="shared" si="15"/>
-        <v>9835.0422909558383</v>
+        <f t="shared" si="18"/>
+        <v>4871.9537121750654</v>
       </c>
       <c r="DL61" s="2">
-        <f t="shared" si="15"/>
-        <v>9736.6918680462804</v>
+        <f t="shared" si="18"/>
+        <v>4823.2341750533151</v>
       </c>
       <c r="DM61" s="2">
-        <f t="shared" ref="DM61:DR61" si="16">DL61*(1+$W$64)</f>
-        <v>9639.3249493658168</v>
+        <f t="shared" ref="DM61:DR61" si="19">DL61*(1+$W$64)</f>
+        <v>4775.001833302782</v>
       </c>
       <c r="DN61" s="2">
-        <f t="shared" si="16"/>
-        <v>9542.9316998721588</v>
+        <f t="shared" si="19"/>
+        <v>4727.2518149697544</v>
       </c>
       <c r="DO61" s="2">
-        <f t="shared" si="16"/>
-        <v>9447.5023828734375</v>
+        <f t="shared" si="19"/>
+        <v>4679.9792968200572</v>
       </c>
       <c r="DP61" s="2">
-        <f t="shared" si="16"/>
-        <v>9353.0273590447032</v>
+        <f t="shared" si="19"/>
+        <v>4633.1795038518567</v>
       </c>
       <c r="DQ61" s="2">
-        <f t="shared" si="16"/>
-        <v>9259.4970854542553</v>
+        <f t="shared" si="19"/>
+        <v>4586.8477088133377</v>
       </c>
       <c r="DR61" s="2">
-        <f t="shared" si="16"/>
-        <v>9166.9021145997121</v>
+        <f t="shared" si="19"/>
+        <v>4540.979231725204</v>
       </c>
     </row>
     <row r="62" spans="2:122" x14ac:dyDescent="0.2">
@@ -2882,23 +2882,23 @@
         <v>5700</v>
       </c>
       <c r="P62" s="2">
-        <f t="shared" ref="P62:T62" si="17">O62</f>
+        <f t="shared" ref="P62:T62" si="20">O62</f>
         <v>5700</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5700</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5700</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5700</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5700</v>
       </c>
     </row>
@@ -2911,36 +2911,36 @@
         <v>8.0226757369614514</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" ref="M63:N63" si="18">M61/M62</f>
+        <f t="shared" ref="M63:N63" si="21">M61/M62</f>
         <v>2.9950954633035556</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4.0101754385964909</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" ref="O63" si="19">O61/O62</f>
+        <f t="shared" ref="O63" si="22">O61/O62</f>
         <v>3.4104364</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" ref="P63" si="20">P61/P62</f>
+        <f t="shared" ref="P63" si="23">P61/P62</f>
         <v>3.6065794449439998</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" ref="Q63" si="21">Q61/Q62</f>
+        <f t="shared" ref="Q63" si="24">Q61/Q62</f>
         <v>3.8115214320853066</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" ref="R63" si="22">R61/R62</f>
+        <f t="shared" ref="R63" si="25">R61/R62</f>
         <v>4.025629532509388</v>
       </c>
       <c r="S63" s="1">
-        <f t="shared" ref="S63" si="23">S61/S62</f>
+        <f t="shared" ref="S63" si="26">S61/S62</f>
         <v>4.2492858469509569</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" ref="T63" si="24">T61/T62</f>
-        <v>4.4828880068551227</v>
+        <f t="shared" ref="T63" si="27">T61/T62</f>
+        <v>2.2206740164551233</v>
       </c>
       <c r="V63" s="2" t="s">
         <v>40</v>
@@ -2966,36 +2966,36 @@
         <v>33</v>
       </c>
       <c r="M65" s="6">
-        <f>M47/L47-1</f>
+        <f t="shared" ref="M65:T65" si="28">M47/L47-1</f>
         <v>-0.41137632814430447</v>
       </c>
       <c r="N65" s="6">
-        <f>N47/M47-1</f>
+        <f t="shared" si="28"/>
         <v>6.8391711723813753E-2</v>
       </c>
       <c r="O65" s="6">
-        <f>O47/N47-1</f>
+        <f t="shared" si="28"/>
         <v>-1.7712606283496024E-2</v>
       </c>
       <c r="P65" s="6">
-        <f>P47/O47-1</f>
+        <f t="shared" si="28"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="Q65" s="6">
-        <f>Q47/P47-1</f>
+        <f t="shared" si="28"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="R65" s="6">
-        <f>R47/Q47-1</f>
+        <f t="shared" si="28"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="S65" s="6">
-        <f>S47/R47-1</f>
+        <f t="shared" si="28"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="T65" s="6">
-        <f>T47/S47-1</f>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="28"/>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>41</v>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="W66" s="3">
         <f>NPV(W65,O61:XFD61)+Main!K5-Main!K6</f>
-        <v>229100.0841003923</v>
+        <v>131603.00910341376</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
@@ -3051,35 +3051,35 @@
         <v>35</v>
       </c>
       <c r="M67" s="5">
-        <f>M50/L50-1</f>
+        <f t="shared" ref="M67:T67" si="29">M50/L50-1</f>
         <v>7.9988301528112871E-2</v>
       </c>
       <c r="N67" s="5">
-        <f>N50/M50-1</f>
+        <f t="shared" si="29"/>
         <v>-2.7757091598402672E-3</v>
       </c>
       <c r="O67" s="5">
-        <f>O50/N50-1</f>
+        <f t="shared" si="29"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="P67" s="5">
-        <f>P50/O50-1</f>
+        <f t="shared" si="29"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="Q67" s="5">
-        <f>Q50/P50-1</f>
+        <f t="shared" si="29"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="R67" s="5">
-        <f>R50/Q50-1</f>
+        <f t="shared" si="29"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="S67" s="5">
-        <f>S50/R50-1</f>
+        <f t="shared" si="29"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="T67" s="5">
-        <f>T50/S50-1</f>
+        <f t="shared" si="29"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="V67" s="2" t="s">
@@ -3087,14 +3087,14 @@
       </c>
       <c r="W67" s="1">
         <f>W66/Main!K3</f>
-        <v>40.29645588674056</v>
+        <v>23.147677451633676</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M68" s="5"/>
       <c r="W68" s="5">
         <f>W67/Main!K2-1</f>
-        <v>0.72575828208739002</v>
+        <v>-8.6647772319625727E-3</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
@@ -3114,24 +3114,24 @@
         <v>-27837.51252</v>
       </c>
       <c r="P69" s="2">
-        <f t="shared" ref="P69:T69" si="25">O69+P61</f>
+        <f t="shared" ref="P69:T69" si="30">O69+P61</f>
         <v>-7280.0096838192003</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>14445.662479067047</v>
       </c>
       <c r="R69" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>37391.750814370556</v>
       </c>
       <c r="S69" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>61612.680141991012</v>
       </c>
       <c r="T69" s="2">
-        <f t="shared" si="25"/>
-        <v>87165.141781065206</v>
+        <f t="shared" si="30"/>
+        <v>74270.522035785209</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
@@ -3475,444 +3475,444 @@
         <v>26031</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" ref="M98:N98" si="26">M96-M97</f>
+        <f t="shared" ref="M98:N98" si="31">M96-M97</f>
         <v>4793</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>9835</v>
       </c>
       <c r="O98" s="2">
-        <f>O100*O47</f>
+        <f t="shared" ref="O98:T98" si="32">O100*O47</f>
         <v>15625</v>
       </c>
       <c r="P98" s="2">
-        <f>P100*P47</f>
+        <f t="shared" si="32"/>
         <v>16250</v>
       </c>
       <c r="Q98" s="2">
-        <f>Q100*Q47</f>
+        <f t="shared" si="32"/>
         <v>16900</v>
       </c>
       <c r="R98" s="2">
-        <f>R100*R47</f>
+        <f t="shared" si="32"/>
         <v>17576</v>
       </c>
       <c r="S98" s="2">
-        <f>S100*S47</f>
+        <f t="shared" si="32"/>
         <v>18279.04</v>
       </c>
       <c r="T98" s="2">
-        <f>T100*T47</f>
-        <v>19010.2016</v>
+        <f t="shared" si="32"/>
+        <v>12795.328</v>
       </c>
       <c r="U98" s="2">
         <f>T98*(1+$W$64)</f>
-        <v>18820.099584</v>
+        <v>12667.37472</v>
       </c>
       <c r="V98" s="2">
-        <f t="shared" ref="V98:CG98" si="27">U98*(1+$W$64)</f>
-        <v>18631.898588159998</v>
+        <f t="shared" ref="V98:CG98" si="33">U98*(1+$W$64)</f>
+        <v>12540.700972799999</v>
       </c>
       <c r="W98" s="2">
-        <f t="shared" si="27"/>
-        <v>18445.579602278398</v>
+        <f t="shared" si="33"/>
+        <v>12415.293963071999</v>
       </c>
       <c r="X98" s="2">
-        <f t="shared" si="27"/>
-        <v>18261.123806255615</v>
+        <f t="shared" si="33"/>
+        <v>12291.14102344128</v>
       </c>
       <c r="Y98" s="2">
-        <f t="shared" si="27"/>
-        <v>18078.512568193059</v>
+        <f t="shared" si="33"/>
+        <v>12168.229613206866</v>
       </c>
       <c r="Z98" s="2">
-        <f t="shared" si="27"/>
-        <v>17897.727442511128</v>
+        <f t="shared" si="33"/>
+        <v>12046.547317074797</v>
       </c>
       <c r="AA98" s="2">
-        <f t="shared" si="27"/>
-        <v>17718.750168086015</v>
+        <f t="shared" si="33"/>
+        <v>11926.081843904049</v>
       </c>
       <c r="AB98" s="2">
-        <f t="shared" si="27"/>
-        <v>17541.562666405156</v>
+        <f t="shared" si="33"/>
+        <v>11806.821025465008</v>
       </c>
       <c r="AC98" s="2">
-        <f t="shared" si="27"/>
-        <v>17366.147039741103</v>
+        <f t="shared" si="33"/>
+        <v>11688.752815210357</v>
       </c>
       <c r="AD98" s="2">
-        <f t="shared" si="27"/>
-        <v>17192.485569343691</v>
+        <f t="shared" si="33"/>
+        <v>11571.865287058254</v>
       </c>
       <c r="AE98" s="2">
-        <f t="shared" si="27"/>
-        <v>17020.560713650255</v>
+        <f t="shared" si="33"/>
+        <v>11456.146634187671</v>
       </c>
       <c r="AF98" s="2">
-        <f t="shared" si="27"/>
-        <v>16850.355106513751</v>
+        <f t="shared" si="33"/>
+        <v>11341.585167845795</v>
       </c>
       <c r="AG98" s="2">
-        <f t="shared" si="27"/>
-        <v>16681.851555448615</v>
+        <f t="shared" si="33"/>
+        <v>11228.169316167337</v>
       </c>
       <c r="AH98" s="2">
-        <f t="shared" si="27"/>
-        <v>16515.03303989413</v>
+        <f t="shared" si="33"/>
+        <v>11115.887623005665</v>
       </c>
       <c r="AI98" s="2">
-        <f t="shared" si="27"/>
-        <v>16349.882709495188</v>
+        <f t="shared" si="33"/>
+        <v>11004.728746775609</v>
       </c>
       <c r="AJ98" s="2">
-        <f t="shared" si="27"/>
-        <v>16186.383882400236</v>
+        <f t="shared" si="33"/>
+        <v>10894.681459307852</v>
       </c>
       <c r="AK98" s="2">
-        <f t="shared" si="27"/>
-        <v>16024.520043576233</v>
+        <f t="shared" si="33"/>
+        <v>10785.734644714774</v>
       </c>
       <c r="AL98" s="2">
-        <f t="shared" si="27"/>
-        <v>15864.274843140471</v>
+        <f t="shared" si="33"/>
+        <v>10677.877298267626</v>
       </c>
       <c r="AM98" s="2">
-        <f t="shared" si="27"/>
-        <v>15705.632094709066</v>
+        <f t="shared" si="33"/>
+        <v>10571.09852528495</v>
       </c>
       <c r="AN98" s="2">
-        <f t="shared" si="27"/>
-        <v>15548.575773761975</v>
+        <f t="shared" si="33"/>
+        <v>10465.387540032099</v>
       </c>
       <c r="AO98" s="2">
-        <f t="shared" si="27"/>
-        <v>15393.090016024355</v>
+        <f t="shared" si="33"/>
+        <v>10360.733664631778</v>
       </c>
       <c r="AP98" s="2">
-        <f t="shared" si="27"/>
-        <v>15239.159115864111</v>
+        <f t="shared" si="33"/>
+        <v>10257.126327985461</v>
       </c>
       <c r="AQ98" s="2">
-        <f t="shared" si="27"/>
-        <v>15086.76752470547</v>
+        <f t="shared" si="33"/>
+        <v>10154.555064705606</v>
       </c>
       <c r="AR98" s="2">
-        <f t="shared" si="27"/>
-        <v>14935.899849458416</v>
+        <f t="shared" si="33"/>
+        <v>10053.009514058551</v>
       </c>
       <c r="AS98" s="2">
-        <f t="shared" si="27"/>
-        <v>14786.540850963831</v>
+        <f t="shared" si="33"/>
+        <v>9952.4794189179647</v>
       </c>
       <c r="AT98" s="2">
-        <f t="shared" si="27"/>
-        <v>14638.675442454192</v>
+        <f t="shared" si="33"/>
+        <v>9852.9546247287853</v>
       </c>
       <c r="AU98" s="2">
-        <f t="shared" si="27"/>
-        <v>14492.28868802965</v>
+        <f t="shared" si="33"/>
+        <v>9754.4250784814976</v>
       </c>
       <c r="AV98" s="2">
-        <f t="shared" si="27"/>
-        <v>14347.365801149354</v>
+        <f t="shared" si="33"/>
+        <v>9656.8808276966829</v>
       </c>
       <c r="AW98" s="2">
-        <f t="shared" si="27"/>
-        <v>14203.89214313786</v>
+        <f t="shared" si="33"/>
+        <v>9560.3120194197163</v>
       </c>
       <c r="AX98" s="2">
-        <f t="shared" si="27"/>
-        <v>14061.853221706482</v>
+        <f t="shared" si="33"/>
+        <v>9464.7088992255194</v>
       </c>
       <c r="AY98" s="2">
-        <f t="shared" si="27"/>
-        <v>13921.234689489418</v>
+        <f t="shared" si="33"/>
+        <v>9370.0618102332646</v>
       </c>
       <c r="AZ98" s="2">
-        <f t="shared" si="27"/>
-        <v>13782.022342594524</v>
+        <f t="shared" si="33"/>
+        <v>9276.3611921309312</v>
       </c>
       <c r="BA98" s="2">
-        <f t="shared" si="27"/>
-        <v>13644.202119168578</v>
+        <f t="shared" si="33"/>
+        <v>9183.5975802096218</v>
       </c>
       <c r="BB98" s="2">
-        <f t="shared" si="27"/>
-        <v>13507.760097976892</v>
+        <f t="shared" si="33"/>
+        <v>9091.7616044075257</v>
       </c>
       <c r="BC98" s="2">
-        <f t="shared" si="27"/>
-        <v>13372.682496997124</v>
+        <f t="shared" si="33"/>
+        <v>9000.843988363451</v>
       </c>
       <c r="BD98" s="2">
-        <f t="shared" si="27"/>
-        <v>13238.955672027152</v>
+        <f t="shared" si="33"/>
+        <v>8910.8355484798158</v>
       </c>
       <c r="BE98" s="2">
-        <f t="shared" si="27"/>
-        <v>13106.566115306881</v>
+        <f t="shared" si="33"/>
+        <v>8821.7271929950184</v>
       </c>
       <c r="BF98" s="2">
-        <f t="shared" si="27"/>
-        <v>12975.500454153813</v>
+        <f t="shared" si="33"/>
+        <v>8733.5099210650678</v>
       </c>
       <c r="BG98" s="2">
-        <f t="shared" si="27"/>
-        <v>12845.745449612275</v>
+        <f t="shared" si="33"/>
+        <v>8646.1748218544162</v>
       </c>
       <c r="BH98" s="2">
-        <f t="shared" si="27"/>
-        <v>12717.287995116152</v>
+        <f t="shared" si="33"/>
+        <v>8559.7130736358722</v>
       </c>
       <c r="BI98" s="2">
-        <f t="shared" si="27"/>
-        <v>12590.11511516499</v>
+        <f t="shared" si="33"/>
+        <v>8474.1159428995143</v>
       </c>
       <c r="BJ98" s="2">
-        <f t="shared" si="27"/>
-        <v>12464.213964013341</v>
+        <f t="shared" si="33"/>
+        <v>8389.3747834705191</v>
       </c>
       <c r="BK98" s="2">
-        <f t="shared" si="27"/>
-        <v>12339.571824373208</v>
+        <f t="shared" si="33"/>
+        <v>8305.4810356358139</v>
       </c>
       <c r="BL98" s="2">
-        <f t="shared" si="27"/>
-        <v>12216.176106129476</v>
+        <f t="shared" si="33"/>
+        <v>8222.426225279456</v>
       </c>
       <c r="BM98" s="2">
-        <f t="shared" si="27"/>
-        <v>12094.014345068181</v>
+        <f t="shared" si="33"/>
+        <v>8140.2019630266614</v>
       </c>
       <c r="BN98" s="2">
-        <f t="shared" si="27"/>
-        <v>11973.074201617499</v>
+        <f t="shared" si="33"/>
+        <v>8058.7999433963951</v>
       </c>
       <c r="BO98" s="2">
-        <f t="shared" si="27"/>
-        <v>11853.343459601325</v>
+        <f t="shared" si="33"/>
+        <v>7978.2119439624312</v>
       </c>
       <c r="BP98" s="2">
-        <f t="shared" si="27"/>
-        <v>11734.810025005312</v>
+        <f t="shared" si="33"/>
+        <v>7898.4298245228065</v>
       </c>
       <c r="BQ98" s="2">
-        <f t="shared" si="27"/>
-        <v>11617.461924755258</v>
+        <f t="shared" si="33"/>
+        <v>7819.4455262775782</v>
       </c>
       <c r="BR98" s="2">
-        <f t="shared" si="27"/>
-        <v>11501.287305507705</v>
+        <f t="shared" si="33"/>
+        <v>7741.2510710148026</v>
       </c>
       <c r="BS98" s="2">
-        <f t="shared" si="27"/>
-        <v>11386.274432452628</v>
+        <f t="shared" si="33"/>
+        <v>7663.8385603046545</v>
       </c>
       <c r="BT98" s="2">
-        <f t="shared" si="27"/>
-        <v>11272.411688128102</v>
+        <f t="shared" si="33"/>
+        <v>7587.2001747016075</v>
       </c>
       <c r="BU98" s="2">
-        <f t="shared" si="27"/>
-        <v>11159.687571246821</v>
+        <f t="shared" si="33"/>
+        <v>7511.3281729545915</v>
       </c>
       <c r="BV98" s="2">
-        <f t="shared" si="27"/>
-        <v>11048.090695534353</v>
+        <f t="shared" si="33"/>
+        <v>7436.2148912250459</v>
       </c>
       <c r="BW98" s="2">
-        <f t="shared" si="27"/>
-        <v>10937.60978857901</v>
+        <f t="shared" si="33"/>
+        <v>7361.8527423127953</v>
       </c>
       <c r="BX98" s="2">
-        <f t="shared" si="27"/>
-        <v>10828.23369069322</v>
+        <f t="shared" si="33"/>
+        <v>7288.2342148896669</v>
       </c>
       <c r="BY98" s="2">
-        <f t="shared" si="27"/>
-        <v>10719.951353786288</v>
+        <f t="shared" si="33"/>
+        <v>7215.35187274077</v>
       </c>
       <c r="BZ98" s="2">
-        <f t="shared" si="27"/>
-        <v>10612.751840248424</v>
+        <f t="shared" si="33"/>
+        <v>7143.1983540133624</v>
       </c>
       <c r="CA98" s="2">
-        <f t="shared" si="27"/>
-        <v>10506.62432184594</v>
+        <f t="shared" si="33"/>
+        <v>7071.7663704732286</v>
       </c>
       <c r="CB98" s="2">
-        <f t="shared" si="27"/>
-        <v>10401.55807862748</v>
+        <f t="shared" si="33"/>
+        <v>7001.0487067684962</v>
       </c>
       <c r="CC98" s="2">
-        <f t="shared" si="27"/>
-        <v>10297.542497841205</v>
+        <f t="shared" si="33"/>
+        <v>6931.0382197008112</v>
       </c>
       <c r="CD98" s="2">
-        <f t="shared" si="27"/>
-        <v>10194.567072862792</v>
+        <f t="shared" si="33"/>
+        <v>6861.7278375038031</v>
       </c>
       <c r="CE98" s="2">
-        <f t="shared" si="27"/>
-        <v>10092.621402134164</v>
+        <f t="shared" si="33"/>
+        <v>6793.1105591287651</v>
       </c>
       <c r="CF98" s="2">
-        <f t="shared" si="27"/>
-        <v>9991.6951881128225</v>
+        <f t="shared" si="33"/>
+        <v>6725.1794535374775</v>
       </c>
       <c r="CG98" s="2">
-        <f t="shared" si="27"/>
-        <v>9891.7782362316939</v>
+        <f t="shared" si="33"/>
+        <v>6657.9276590021027</v>
       </c>
       <c r="CH98" s="2">
-        <f t="shared" ref="CH98:DR98" si="28">CG98*(1+$W$64)</f>
-        <v>9792.8604538693762</v>
+        <f t="shared" ref="CH98:DR98" si="34">CG98*(1+$W$64)</f>
+        <v>6591.3483824120813</v>
       </c>
       <c r="CI98" s="2">
-        <f t="shared" si="28"/>
-        <v>9694.9318493306819</v>
+        <f t="shared" si="34"/>
+        <v>6525.4348985879606</v>
       </c>
       <c r="CJ98" s="2">
-        <f t="shared" si="28"/>
-        <v>9597.9825308373747</v>
+        <f t="shared" si="34"/>
+        <v>6460.1805496020806</v>
       </c>
       <c r="CK98" s="2">
-        <f t="shared" si="28"/>
-        <v>9502.0027055290011</v>
+        <f t="shared" si="34"/>
+        <v>6395.5787441060602</v>
       </c>
       <c r="CL98" s="2">
-        <f t="shared" si="28"/>
-        <v>9406.9826784737106</v>
+        <f t="shared" si="34"/>
+        <v>6331.6229566649999</v>
       </c>
       <c r="CM98" s="2">
-        <f t="shared" si="28"/>
-        <v>9312.9128516889741</v>
+        <f t="shared" si="34"/>
+        <v>6268.3067270983502</v>
       </c>
       <c r="CN98" s="2">
-        <f t="shared" si="28"/>
-        <v>9219.7837231720841</v>
+        <f t="shared" si="34"/>
+        <v>6205.6236598273663</v>
       </c>
       <c r="CO98" s="2">
-        <f t="shared" si="28"/>
-        <v>9127.5858859403634</v>
+        <f t="shared" si="34"/>
+        <v>6143.5674232290921</v>
       </c>
       <c r="CP98" s="2">
-        <f t="shared" si="28"/>
-        <v>9036.3100270809591</v>
+        <f t="shared" si="34"/>
+        <v>6082.1317489968014</v>
       </c>
       <c r="CQ98" s="2">
-        <f t="shared" si="28"/>
-        <v>8945.9469268101493</v>
+        <f t="shared" si="34"/>
+        <v>6021.3104315068331</v>
       </c>
       <c r="CR98" s="2">
-        <f t="shared" si="28"/>
-        <v>8856.4874575420472</v>
+        <f t="shared" si="34"/>
+        <v>5961.0973271917646</v>
       </c>
       <c r="CS98" s="2">
-        <f t="shared" si="28"/>
-        <v>8767.9225829666266</v>
+        <f t="shared" si="34"/>
+        <v>5901.4863539198468</v>
       </c>
       <c r="CT98" s="2">
-        <f t="shared" si="28"/>
-        <v>8680.2433571369602</v>
+        <f t="shared" si="34"/>
+        <v>5842.471490380648</v>
       </c>
       <c r="CU98" s="2">
-        <f t="shared" si="28"/>
-        <v>8593.4409235655912</v>
+        <f t="shared" si="34"/>
+        <v>5784.0467754768415</v>
       </c>
       <c r="CV98" s="2">
-        <f t="shared" si="28"/>
-        <v>8507.5065143299344</v>
+        <f t="shared" si="34"/>
+        <v>5726.2063077220728</v>
       </c>
       <c r="CW98" s="2">
-        <f t="shared" si="28"/>
-        <v>8422.4314491866353</v>
+        <f t="shared" si="34"/>
+        <v>5668.944244644852</v>
       </c>
       <c r="CX98" s="2">
-        <f t="shared" si="28"/>
-        <v>8338.2071346947687</v>
+        <f t="shared" si="34"/>
+        <v>5612.254802198403</v>
       </c>
       <c r="CY98" s="2">
-        <f t="shared" si="28"/>
-        <v>8254.8250633478201</v>
+        <f t="shared" si="34"/>
+        <v>5556.1322541764193</v>
       </c>
       <c r="CZ98" s="2">
-        <f t="shared" si="28"/>
-        <v>8172.2768127143418</v>
+        <f t="shared" si="34"/>
+        <v>5500.5709316346547</v>
       </c>
       <c r="DA98" s="2">
-        <f t="shared" si="28"/>
-        <v>8090.5540445871984</v>
+        <f t="shared" si="34"/>
+        <v>5445.5652223183079</v>
       </c>
       <c r="DB98" s="2">
-        <f t="shared" si="28"/>
-        <v>8009.6485041413262</v>
+        <f t="shared" si="34"/>
+        <v>5391.1095700951246</v>
       </c>
       <c r="DC98" s="2">
-        <f t="shared" si="28"/>
-        <v>7929.5520190999132</v>
+        <f t="shared" si="34"/>
+        <v>5337.198474394173</v>
       </c>
       <c r="DD98" s="2">
-        <f t="shared" si="28"/>
-        <v>7850.2564989089142</v>
+        <f t="shared" si="34"/>
+        <v>5283.8264896502315</v>
       </c>
       <c r="DE98" s="2">
-        <f t="shared" si="28"/>
-        <v>7771.7539339198247</v>
+        <f t="shared" si="34"/>
+        <v>5230.9882247537289</v>
       </c>
       <c r="DF98" s="2">
-        <f t="shared" si="28"/>
-        <v>7694.0363945806266</v>
+        <f t="shared" si="34"/>
+        <v>5178.6783425061913</v>
       </c>
       <c r="DG98" s="2">
-        <f t="shared" si="28"/>
-        <v>7617.0960306348206</v>
+        <f t="shared" si="34"/>
+        <v>5126.8915590811293</v>
       </c>
       <c r="DH98" s="2">
-        <f t="shared" si="28"/>
-        <v>7540.9250703284724</v>
+        <f t="shared" si="34"/>
+        <v>5075.6226434903183</v>
       </c>
       <c r="DI98" s="2">
-        <f t="shared" si="28"/>
-        <v>7465.5158196251878</v>
+        <f t="shared" si="34"/>
+        <v>5024.8664170554148</v>
       </c>
       <c r="DJ98" s="2">
-        <f t="shared" si="28"/>
-        <v>7390.8606614289356</v>
+        <f t="shared" si="34"/>
+        <v>4974.6177528848602</v>
       </c>
       <c r="DK98" s="2">
-        <f t="shared" si="28"/>
-        <v>7316.9520548146465</v>
+        <f t="shared" si="34"/>
+        <v>4924.8715753560118</v>
       </c>
       <c r="DL98" s="2">
-        <f t="shared" si="28"/>
-        <v>7243.7825342665001</v>
+        <f t="shared" si="34"/>
+        <v>4875.6228596024521</v>
       </c>
       <c r="DM98" s="2">
-        <f t="shared" si="28"/>
-        <v>7171.3447089238352</v>
+        <f t="shared" si="34"/>
+        <v>4826.8666310064273</v>
       </c>
       <c r="DN98" s="2">
-        <f t="shared" si="28"/>
-        <v>7099.6312618345964</v>
+        <f t="shared" si="34"/>
+        <v>4778.5979646963633</v>
       </c>
       <c r="DO98" s="2">
-        <f t="shared" si="28"/>
-        <v>7028.6349492162508</v>
+        <f t="shared" si="34"/>
+        <v>4730.8119850493995</v>
       </c>
       <c r="DP98" s="2">
-        <f t="shared" si="28"/>
-        <v>6958.3485997240887</v>
+        <f t="shared" si="34"/>
+        <v>4683.5038651989053</v>
       </c>
       <c r="DQ98" s="2">
-        <f t="shared" si="28"/>
-        <v>6888.7651137268476</v>
+        <f t="shared" si="34"/>
+        <v>4636.6688265469165</v>
       </c>
       <c r="DR98" s="2">
-        <f t="shared" si="28"/>
-        <v>6819.8774625895794</v>
+        <f t="shared" si="34"/>
+        <v>4590.3021382814477</v>
       </c>
     </row>
     <row r="100" spans="2:122" x14ac:dyDescent="0.2">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="W104" s="3">
         <f>NPV(W103,O98:DR98)+Main!K5-Main!K6</f>
-        <v>160586.80042392452</v>
+        <v>113595.72899680934</v>
       </c>
     </row>
     <row r="105" spans="2:122" x14ac:dyDescent="0.2">
@@ -3990,13 +3990,13 @@
       </c>
       <c r="W105" s="1">
         <f>W104/Main!K3</f>
-        <v>28.245641832413472</v>
+        <v>19.980373645066791</v>
       </c>
     </row>
     <row r="106" spans="2:122" x14ac:dyDescent="0.2">
       <c r="W106" s="5">
         <f>W105/Main!K2-1</f>
-        <v>0.20966346177359618</v>
+        <v>-0.14430947986865994</v>
       </c>
     </row>
   </sheetData>

--- a/PFE.xlsx
+++ b/PFE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C13EE-4300-46AF-A377-BEAA31A6777A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C2D4B5-DE0B-4DC6-80E0-3794C173ED3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="345" windowWidth="21540" windowHeight="14760" activeTab="1" xr2:uid="{77BD1193-36D1-453A-8507-DD0E4F65FF43}"/>
+    <workbookView xWindow="4740" yWindow="330" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{77BD1193-36D1-453A-8507-DD0E4F65FF43}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1249,10 +1249,10 @@
   <dimension ref="A1:DR106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T47" sqref="T47"/>
+      <selection pane="bottomRight" activeCell="U70" sqref="U70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1393,8 +1393,7 @@
         <v>8773.0238560000016</v>
       </c>
       <c r="R6" s="2">
-        <f>Q6*0.2</f>
-        <v>1754.6047712000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -2002,16 +2001,16 @@
         <v>67600</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="2"/>
-        <v>70304</v>
+        <f>Q47*0.7</f>
+        <v>47320</v>
       </c>
       <c r="S47" s="3">
         <f t="shared" si="2"/>
-        <v>73116.160000000003</v>
+        <v>49212.800000000003</v>
       </c>
       <c r="T47" s="3">
-        <f>S47*0.7</f>
-        <v>51181.311999999998</v>
+        <f t="shared" si="2"/>
+        <v>51181.312000000005</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -2041,15 +2040,15 @@
       </c>
       <c r="R48" s="2">
         <f t="shared" si="3"/>
-        <v>24606.399999999998</v>
+        <v>16562</v>
       </c>
       <c r="S48" s="2">
         <f t="shared" si="3"/>
-        <v>25590.655999999999</v>
+        <v>17224.48</v>
       </c>
       <c r="T48" s="2">
         <f t="shared" si="3"/>
-        <v>17913.459199999998</v>
+        <v>17913.459200000001</v>
       </c>
     </row>
     <row r="49" spans="2:122" x14ac:dyDescent="0.2">
@@ -2082,15 +2081,15 @@
       </c>
       <c r="R49" s="2">
         <f t="shared" si="4"/>
-        <v>45697.600000000006</v>
+        <v>30758</v>
       </c>
       <c r="S49" s="2">
         <f t="shared" si="4"/>
-        <v>47525.504000000001</v>
+        <v>31988.320000000003</v>
       </c>
       <c r="T49" s="2">
         <f t="shared" si="4"/>
-        <v>33267.852800000001</v>
+        <v>33267.852800000008</v>
       </c>
     </row>
     <row r="50" spans="2:122" x14ac:dyDescent="0.2">
@@ -2107,28 +2106,28 @@
         <v>14730</v>
       </c>
       <c r="O50" s="2">
-        <f>N50*1.04</f>
-        <v>15319.2</v>
+        <f>N50*1.02</f>
+        <v>15024.6</v>
       </c>
       <c r="P50" s="2">
-        <f t="shared" ref="P50:T50" si="5">O50*1.04</f>
-        <v>15931.968000000001</v>
+        <f t="shared" ref="P50:T50" si="5">O50*1.02</f>
+        <v>15325.092000000001</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="5"/>
-        <v>16569.246720000003</v>
+        <v>15631.593840000001</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="5"/>
-        <v>17232.016588800005</v>
+        <v>15944.225716800001</v>
       </c>
       <c r="S50" s="2">
         <f t="shared" si="5"/>
-        <v>17921.297252352004</v>
+        <v>16263.110231136001</v>
       </c>
       <c r="T50" s="2">
         <f t="shared" si="5"/>
-        <v>18638.149142446084</v>
+        <v>16588.37243575872</v>
       </c>
     </row>
     <row r="51" spans="2:122" x14ac:dyDescent="0.2">
@@ -2205,27 +2204,27 @@
       </c>
       <c r="O55" s="2">
         <f t="shared" ref="O55:T55" si="6">SUM(O50:O54)</f>
-        <v>15319.2</v>
+        <v>15024.6</v>
       </c>
       <c r="P55" s="2">
         <f t="shared" si="6"/>
-        <v>15931.968000000001</v>
+        <v>15325.092000000001</v>
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="6"/>
-        <v>16569.246720000003</v>
+        <v>15631.593840000001</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="6"/>
-        <v>17232.016588800005</v>
+        <v>15944.225716800001</v>
       </c>
       <c r="S55" s="2">
         <f t="shared" si="6"/>
-        <v>17921.297252352004</v>
+        <v>16263.110231136001</v>
       </c>
       <c r="T55" s="2">
         <f t="shared" si="6"/>
-        <v>18638.149142446084</v>
+        <v>16588.37243575872</v>
       </c>
     </row>
     <row r="56" spans="2:122" x14ac:dyDescent="0.2">
@@ -2246,27 +2245,27 @@
       </c>
       <c r="O56" s="2">
         <f t="shared" si="7"/>
-        <v>25305.8</v>
+        <v>25600.400000000001</v>
       </c>
       <c r="P56" s="2">
         <f t="shared" si="7"/>
-        <v>26318.031999999999</v>
+        <v>26924.907999999999</v>
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="7"/>
-        <v>27370.753279999997</v>
+        <v>28308.406159999999</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="7"/>
-        <v>28465.583411200001</v>
+        <v>14813.774283199999</v>
       </c>
       <c r="S56" s="2">
         <f t="shared" si="7"/>
-        <v>29604.206747647997</v>
+        <v>15725.209768864002</v>
       </c>
       <c r="T56" s="2">
         <f t="shared" si="7"/>
-        <v>14629.703657553917</v>
+        <v>16679.480364241288</v>
       </c>
     </row>
     <row r="57" spans="2:122" x14ac:dyDescent="0.2">
@@ -2279,23 +2278,23 @@
       </c>
       <c r="P57" s="2">
         <f t="shared" ref="P57:T57" si="8">O69*$W$63</f>
-        <v>-556.75025040000003</v>
+        <v>-552.04843440000002</v>
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="8"/>
-        <v>-145.60019367638401</v>
+        <v>-131.137595733024</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="8"/>
-        <v>288.91324958134095</v>
+        <v>318.57161055267693</v>
       </c>
       <c r="S57" s="2">
         <f t="shared" si="8"/>
-        <v>747.83501628741112</v>
+        <v>560.08385101696967</v>
       </c>
       <c r="T57" s="2">
         <f t="shared" si="8"/>
-        <v>1232.2536028398204</v>
+        <v>819.99713719027</v>
       </c>
     </row>
     <row r="58" spans="2:122" x14ac:dyDescent="0.2">
@@ -2316,27 +2315,27 @@
       </c>
       <c r="O58" s="2">
         <f t="shared" si="9"/>
-        <v>24360.26</v>
+        <v>24654.86</v>
       </c>
       <c r="P58" s="2">
         <f t="shared" si="9"/>
-        <v>25761.281749599999</v>
+        <v>26372.8595656</v>
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="9"/>
-        <v>27225.153086323615</v>
+        <v>28177.268564266975</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="9"/>
-        <v>28754.49666078134</v>
+        <v>15132.345893752676</v>
       </c>
       <c r="S58" s="2">
         <f t="shared" si="9"/>
-        <v>30352.041763935409</v>
+        <v>16285.293619880973</v>
       </c>
       <c r="T58" s="2">
         <f t="shared" si="9"/>
-        <v>15861.957260393738</v>
+        <v>17499.477501431556</v>
       </c>
     </row>
     <row r="59" spans="2:122" x14ac:dyDescent="0.2">
@@ -2354,27 +2353,27 @@
       </c>
       <c r="O59" s="2">
         <f>O58*0.2</f>
-        <v>4872.0519999999997</v>
+        <v>4930.9720000000007</v>
       </c>
       <c r="P59" s="2">
         <f t="shared" ref="P59:T59" si="10">P58*0.2</f>
-        <v>5152.2563499200005</v>
+        <v>5274.5719131200003</v>
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="10"/>
-        <v>5445.0306172647233</v>
+        <v>5635.4537128533957</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="10"/>
-        <v>5750.8993321562684</v>
+        <v>3026.4691787505353</v>
       </c>
       <c r="S59" s="2">
         <f t="shared" si="10"/>
-        <v>6070.4083527870825</v>
+        <v>3257.0587239761949</v>
       </c>
       <c r="T59" s="2">
         <f t="shared" si="10"/>
-        <v>3172.3914520787475</v>
+        <v>3499.8955002863113</v>
       </c>
     </row>
     <row r="60" spans="2:122" x14ac:dyDescent="0.2">
@@ -2392,27 +2391,27 @@
       </c>
       <c r="O60" s="2">
         <f>O58*0.002</f>
-        <v>48.72052</v>
+        <v>49.309719999999999</v>
       </c>
       <c r="P60" s="2">
         <f t="shared" ref="P60:T60" si="11">P58*0.002</f>
-        <v>51.522563499199997</v>
+        <v>52.745719131199998</v>
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="11"/>
-        <v>54.450306172647231</v>
+        <v>56.354537128533948</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="11"/>
-        <v>57.508993321562684</v>
+        <v>30.264691787505352</v>
       </c>
       <c r="S60" s="2">
         <f t="shared" si="11"/>
-        <v>60.704083527870822</v>
+        <v>32.570587239761949</v>
       </c>
       <c r="T60" s="2">
         <f t="shared" si="11"/>
-        <v>31.723914520787478</v>
+        <v>34.998955002863113</v>
       </c>
     </row>
     <row r="61" spans="2:122" x14ac:dyDescent="0.2">
@@ -2433,435 +2432,435 @@
       </c>
       <c r="O61" s="2">
         <f t="shared" si="12"/>
-        <v>19439.48748</v>
+        <v>19674.578279999998</v>
       </c>
       <c r="P61" s="2">
         <f t="shared" si="12"/>
-        <v>20557.5028361808</v>
+        <v>21045.541933348803</v>
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="12"/>
-        <v>21725.672162886247</v>
+        <v>22485.460314285046</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" ref="R61" si="13">R58-R59-R60</f>
-        <v>22946.08833530351</v>
+        <v>12075.612023214637</v>
       </c>
       <c r="S61" s="2">
         <f t="shared" ref="S61" si="14">S58-S59-S60</f>
-        <v>24220.929327620455</v>
+        <v>12995.664308665017</v>
       </c>
       <c r="T61" s="2">
         <f t="shared" ref="T61" si="15">T58-T59-T60</f>
-        <v>12657.841893794202</v>
+        <v>13964.583046142383</v>
       </c>
       <c r="U61" s="2">
         <f t="shared" ref="U61:AZ61" si="16">T61*(1+$W$64)</f>
-        <v>12531.26347485626</v>
+        <v>13824.937215680959</v>
       </c>
       <c r="V61" s="2">
         <f t="shared" si="16"/>
-        <v>12405.950840107696</v>
+        <v>13686.687843524149</v>
       </c>
       <c r="W61" s="2">
         <f t="shared" si="16"/>
-        <v>12281.89133170662</v>
+        <v>13549.820965088908</v>
       </c>
       <c r="X61" s="2">
         <f t="shared" si="16"/>
-        <v>12159.072418389553</v>
+        <v>13414.322755438019</v>
       </c>
       <c r="Y61" s="2">
         <f t="shared" si="16"/>
-        <v>12037.481694205657</v>
+        <v>13280.179527883638</v>
       </c>
       <c r="Z61" s="2">
         <f t="shared" si="16"/>
-        <v>11917.106877263601</v>
+        <v>13147.377732604802</v>
       </c>
       <c r="AA61" s="2">
         <f t="shared" si="16"/>
-        <v>11797.935808490965</v>
+        <v>13015.903955278754</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="16"/>
-        <v>11679.956450406056</v>
+        <v>12885.744915725967</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="16"/>
-        <v>11563.156885901995</v>
+        <v>12756.887466568707</v>
       </c>
       <c r="AD61" s="2">
         <f t="shared" si="16"/>
-        <v>11447.525317042975</v>
+        <v>12629.31859190302</v>
       </c>
       <c r="AE61" s="2">
         <f t="shared" si="16"/>
-        <v>11333.050063872544</v>
+        <v>12503.02540598399</v>
       </c>
       <c r="AF61" s="2">
         <f t="shared" si="16"/>
-        <v>11219.719563233819</v>
+        <v>12377.995151924149</v>
       </c>
       <c r="AG61" s="2">
         <f t="shared" si="16"/>
-        <v>11107.522367601481</v>
+        <v>12254.215200404908</v>
       </c>
       <c r="AH61" s="2">
         <f t="shared" si="16"/>
-        <v>10996.447143925467</v>
+        <v>12131.673048400859</v>
       </c>
       <c r="AI61" s="2">
         <f t="shared" si="16"/>
-        <v>10886.482672486212</v>
+        <v>12010.35631791685</v>
       </c>
       <c r="AJ61" s="2">
         <f t="shared" si="16"/>
-        <v>10777.61784576135</v>
+        <v>11890.252754737681</v>
       </c>
       <c r="AK61" s="2">
         <f t="shared" si="16"/>
-        <v>10669.841667303735</v>
+        <v>11771.350227190303</v>
       </c>
       <c r="AL61" s="2">
         <f t="shared" si="16"/>
-        <v>10563.143250630697</v>
+        <v>11653.6367249184</v>
       </c>
       <c r="AM61" s="2">
         <f t="shared" si="16"/>
-        <v>10457.511818124391</v>
+        <v>11537.100357669216</v>
       </c>
       <c r="AN61" s="2">
         <f t="shared" si="16"/>
-        <v>10352.936699943146</v>
+        <v>11421.729354092524</v>
       </c>
       <c r="AO61" s="2">
         <f t="shared" si="16"/>
-        <v>10249.407332943714</v>
+        <v>11307.512060551599</v>
       </c>
       <c r="AP61" s="2">
         <f t="shared" si="16"/>
-        <v>10146.913259614277</v>
+        <v>11194.436939946083</v>
       </c>
       <c r="AQ61" s="2">
         <f t="shared" si="16"/>
-        <v>10045.444127018134</v>
+        <v>11082.492570546621</v>
       </c>
       <c r="AR61" s="2">
         <f t="shared" si="16"/>
-        <v>9944.9896857479525</v>
+        <v>10971.667644841154</v>
       </c>
       <c r="AS61" s="2">
         <f t="shared" si="16"/>
-        <v>9845.5397888904736</v>
+        <v>10861.950968392743</v>
       </c>
       <c r="AT61" s="2">
         <f t="shared" si="16"/>
-        <v>9747.0843910015683</v>
+        <v>10753.331458708815</v>
       </c>
       <c r="AU61" s="2">
         <f t="shared" si="16"/>
-        <v>9649.6135470915524</v>
+        <v>10645.798144121727</v>
       </c>
       <c r="AV61" s="2">
         <f t="shared" si="16"/>
-        <v>9553.1174116206366</v>
+        <v>10539.34016268051</v>
       </c>
       <c r="AW61" s="2">
         <f t="shared" si="16"/>
-        <v>9457.5862375044308</v>
+        <v>10433.946761053705</v>
       </c>
       <c r="AX61" s="2">
         <f t="shared" si="16"/>
-        <v>9363.0103751293864</v>
+        <v>10329.607293443169</v>
       </c>
       <c r="AY61" s="2">
         <f t="shared" si="16"/>
-        <v>9269.3802713780933</v>
+        <v>10226.311220508736</v>
       </c>
       <c r="AZ61" s="2">
         <f t="shared" si="16"/>
-        <v>9176.686468664313</v>
+        <v>10124.048108303648</v>
       </c>
       <c r="BA61" s="2">
         <f t="shared" ref="BA61:CF61" si="17">AZ61*(1+$W$64)</f>
-        <v>9084.9196039776689</v>
+        <v>10022.807627220613</v>
       </c>
       <c r="BB61" s="2">
         <f t="shared" si="17"/>
-        <v>8994.070407937892</v>
+        <v>9922.5795509484069</v>
       </c>
       <c r="BC61" s="2">
         <f t="shared" si="17"/>
-        <v>8904.1297038585126</v>
+        <v>9823.3537554389222</v>
       </c>
       <c r="BD61" s="2">
         <f t="shared" si="17"/>
-        <v>8815.0884068199266</v>
+        <v>9725.1202178845324</v>
       </c>
       <c r="BE61" s="2">
         <f t="shared" si="17"/>
-        <v>8726.9375227517266</v>
+        <v>9627.8690157056863</v>
       </c>
       <c r="BF61" s="2">
         <f t="shared" si="17"/>
-        <v>8639.6681475242094</v>
+        <v>9531.5903255486301</v>
       </c>
       <c r="BG61" s="2">
         <f t="shared" si="17"/>
-        <v>8553.2714660489673</v>
+        <v>9436.2744222931433</v>
       </c>
       <c r="BH61" s="2">
         <f t="shared" si="17"/>
-        <v>8467.7387513884769</v>
+        <v>9341.9116780702116</v>
       </c>
       <c r="BI61" s="2">
         <f t="shared" si="17"/>
-        <v>8383.0613638745926</v>
+        <v>9248.4925612895095</v>
       </c>
       <c r="BJ61" s="2">
         <f t="shared" si="17"/>
-        <v>8299.2307502358472</v>
+        <v>9156.0076356766149</v>
       </c>
       <c r="BK61" s="2">
         <f t="shared" si="17"/>
-        <v>8216.2384427334891</v>
+        <v>9064.4475593198495</v>
       </c>
       <c r="BL61" s="2">
         <f t="shared" si="17"/>
-        <v>8134.0760583061538</v>
+        <v>8973.8030837266506</v>
       </c>
       <c r="BM61" s="2">
         <f t="shared" si="17"/>
-        <v>8052.7352977230921</v>
+        <v>8884.0650528893839</v>
       </c>
       <c r="BN61" s="2">
         <f t="shared" si="17"/>
-        <v>7972.2079447458609</v>
+        <v>8795.2244023604908</v>
       </c>
       <c r="BO61" s="2">
         <f t="shared" si="17"/>
-        <v>7892.4858652984021</v>
+        <v>8707.2721583368857</v>
       </c>
       <c r="BP61" s="2">
         <f t="shared" si="17"/>
-        <v>7813.5610066454183</v>
+        <v>8620.1994367535171</v>
       </c>
       <c r="BQ61" s="2">
         <f t="shared" si="17"/>
-        <v>7735.425396578964</v>
+        <v>8533.9974423859821</v>
       </c>
       <c r="BR61" s="2">
         <f t="shared" si="17"/>
-        <v>7658.0711426131738</v>
+        <v>8448.6574679621226</v>
       </c>
       <c r="BS61" s="2">
         <f t="shared" si="17"/>
-        <v>7581.4904311870423</v>
+        <v>8364.1708932825004</v>
       </c>
       <c r="BT61" s="2">
         <f t="shared" si="17"/>
-        <v>7505.6755268751722</v>
+        <v>8280.5291843496761</v>
       </c>
       <c r="BU61" s="2">
         <f t="shared" si="17"/>
-        <v>7430.6187716064205</v>
+        <v>8197.7238925061793</v>
       </c>
       <c r="BV61" s="2">
         <f t="shared" si="17"/>
-        <v>7356.3125838903561</v>
+        <v>8115.7466535811172</v>
       </c>
       <c r="BW61" s="2">
         <f t="shared" si="17"/>
-        <v>7282.7494580514522</v>
+        <v>8034.5891870453061</v>
       </c>
       <c r="BX61" s="2">
         <f t="shared" si="17"/>
-        <v>7209.921963470938</v>
+        <v>7954.2432951748533</v>
       </c>
       <c r="BY61" s="2">
         <f t="shared" si="17"/>
-        <v>7137.8227438362283</v>
+        <v>7874.7008622231051</v>
       </c>
       <c r="BZ61" s="2">
         <f t="shared" si="17"/>
-        <v>7066.4445163978662</v>
+        <v>7795.953853600874</v>
       </c>
       <c r="CA61" s="2">
         <f t="shared" si="17"/>
-        <v>6995.7800712338876</v>
+        <v>7717.9943150648651</v>
       </c>
       <c r="CB61" s="2">
         <f t="shared" si="17"/>
-        <v>6925.8222705215485</v>
+        <v>7640.8143719142163</v>
       </c>
       <c r="CC61" s="2">
         <f t="shared" si="17"/>
-        <v>6856.5640478163332</v>
+        <v>7564.4062281950737</v>
       </c>
       <c r="CD61" s="2">
         <f t="shared" si="17"/>
-        <v>6787.9984073381702</v>
+        <v>7488.7621659131228</v>
       </c>
       <c r="CE61" s="2">
         <f t="shared" si="17"/>
-        <v>6720.1184232647884</v>
+        <v>7413.8745442539912</v>
       </c>
       <c r="CF61" s="2">
         <f t="shared" si="17"/>
-        <v>6652.9172390321401</v>
+        <v>7339.7357988114509</v>
       </c>
       <c r="CG61" s="2">
         <f t="shared" ref="CG61:DL61" si="18">CF61*(1+$W$64)</f>
-        <v>6586.388066641819</v>
+        <v>7266.338440823336</v>
       </c>
       <c r="CH61" s="2">
         <f t="shared" si="18"/>
-        <v>6520.5241859754005</v>
+        <v>7193.6750564151025</v>
       </c>
       <c r="CI61" s="2">
         <f t="shared" si="18"/>
-        <v>6455.3189441156464</v>
+        <v>7121.7383058509513</v>
       </c>
       <c r="CJ61" s="2">
         <f t="shared" si="18"/>
-        <v>6390.7657546744895</v>
+        <v>7050.5209227924415</v>
       </c>
       <c r="CK61" s="2">
         <f t="shared" si="18"/>
-        <v>6326.8580971277443</v>
+        <v>6980.0157135645168</v>
       </c>
       <c r="CL61" s="2">
         <f t="shared" si="18"/>
-        <v>6263.5895161564667</v>
+        <v>6910.2155564288714</v>
       </c>
       <c r="CM61" s="2">
         <f t="shared" si="18"/>
-        <v>6200.9536209949019</v>
+        <v>6841.1134008645822</v>
       </c>
       <c r="CN61" s="2">
         <f t="shared" si="18"/>
-        <v>6138.9440847849528</v>
+        <v>6772.7022668559366</v>
       </c>
       <c r="CO61" s="2">
         <f t="shared" si="18"/>
-        <v>6077.5546439371028</v>
+        <v>6704.975244187377</v>
       </c>
       <c r="CP61" s="2">
         <f t="shared" si="18"/>
-        <v>6016.7790974977315</v>
+        <v>6637.9254917455028</v>
       </c>
       <c r="CQ61" s="2">
         <f t="shared" si="18"/>
-        <v>5956.6113065227546</v>
+        <v>6571.5462368280478</v>
       </c>
       <c r="CR61" s="2">
         <f t="shared" si="18"/>
-        <v>5897.0451934575267</v>
+        <v>6505.8307744597669</v>
       </c>
       <c r="CS61" s="2">
         <f t="shared" si="18"/>
-        <v>5838.0747415229516</v>
+        <v>6440.7724667151688</v>
       </c>
       <c r="CT61" s="2">
         <f t="shared" si="18"/>
-        <v>5779.6939941077217</v>
+        <v>6376.3647420480174</v>
       </c>
       <c r="CU61" s="2">
         <f t="shared" si="18"/>
-        <v>5721.897054166644</v>
+        <v>6312.6010946275373</v>
       </c>
       <c r="CV61" s="2">
         <f t="shared" si="18"/>
-        <v>5664.6780836249773</v>
+        <v>6249.4750836812618</v>
       </c>
       <c r="CW61" s="2">
         <f t="shared" si="18"/>
-        <v>5608.0313027887278</v>
+        <v>6186.9803328444495</v>
       </c>
       <c r="CX61" s="2">
         <f t="shared" si="18"/>
-        <v>5551.9509897608405</v>
+        <v>6125.110529516005</v>
       </c>
       <c r="CY61" s="2">
         <f t="shared" si="18"/>
-        <v>5496.4314798632322</v>
+        <v>6063.8594242208446</v>
       </c>
       <c r="CZ61" s="2">
         <f t="shared" si="18"/>
-        <v>5441.4671650645996</v>
+        <v>6003.2208299786362</v>
       </c>
       <c r="DA61" s="2">
         <f t="shared" si="18"/>
-        <v>5387.0524934139539</v>
+        <v>5943.1886216788498</v>
       </c>
       <c r="DB61" s="2">
         <f t="shared" si="18"/>
-        <v>5333.1819684798147</v>
+        <v>5883.7567354620614</v>
       </c>
       <c r="DC61" s="2">
         <f t="shared" si="18"/>
-        <v>5279.8501487950161</v>
+        <v>5824.9191681074408</v>
       </c>
       <c r="DD61" s="2">
         <f t="shared" si="18"/>
-        <v>5227.0516473070657</v>
+        <v>5766.6699764263667</v>
       </c>
       <c r="DE61" s="2">
         <f t="shared" si="18"/>
-        <v>5174.7811308339951</v>
+        <v>5709.0032766621034</v>
       </c>
       <c r="DF61" s="2">
         <f t="shared" si="18"/>
-        <v>5123.0333195256553</v>
+        <v>5651.9132438954821</v>
       </c>
       <c r="DG61" s="2">
         <f t="shared" si="18"/>
-        <v>5071.8029863303991</v>
+        <v>5595.3941114565268</v>
       </c>
       <c r="DH61" s="2">
         <f t="shared" si="18"/>
-        <v>5021.0849564670953</v>
+        <v>5539.4401703419617</v>
       </c>
       <c r="DI61" s="2">
         <f t="shared" si="18"/>
-        <v>4970.8741069024245</v>
+        <v>5484.0457686385416</v>
       </c>
       <c r="DJ61" s="2">
         <f t="shared" si="18"/>
-        <v>4921.1653658333998</v>
+        <v>5429.2053109521557</v>
       </c>
       <c r="DK61" s="2">
         <f t="shared" si="18"/>
-        <v>4871.9537121750654</v>
+        <v>5374.9132578426343</v>
       </c>
       <c r="DL61" s="2">
         <f t="shared" si="18"/>
-        <v>4823.2341750533151</v>
+        <v>5321.1641252642075</v>
       </c>
       <c r="DM61" s="2">
         <f t="shared" ref="DM61:DR61" si="19">DL61*(1+$W$64)</f>
-        <v>4775.001833302782</v>
+        <v>5267.9524840115655</v>
       </c>
       <c r="DN61" s="2">
         <f t="shared" si="19"/>
-        <v>4727.2518149697544</v>
+        <v>5215.2729591714497</v>
       </c>
       <c r="DO61" s="2">
         <f t="shared" si="19"/>
-        <v>4679.9792968200572</v>
+        <v>5163.1202295797348</v>
       </c>
       <c r="DP61" s="2">
         <f t="shared" si="19"/>
-        <v>4633.1795038518567</v>
+        <v>5111.4890272839375</v>
       </c>
       <c r="DQ61" s="2">
         <f t="shared" si="19"/>
-        <v>4586.8477088133377</v>
+        <v>5060.3741370110984</v>
       </c>
       <c r="DR61" s="2">
         <f t="shared" si="19"/>
-        <v>4540.979231725204</v>
+        <v>5009.7703956409878</v>
       </c>
     </row>
     <row r="62" spans="2:122" x14ac:dyDescent="0.2">
@@ -2920,27 +2919,27 @@
       </c>
       <c r="O63" s="1">
         <f t="shared" ref="O63" si="22">O61/O62</f>
-        <v>3.4104364</v>
+        <v>3.4516803999999994</v>
       </c>
       <c r="P63" s="1">
         <f t="shared" ref="P63" si="23">P61/P62</f>
-        <v>3.6065794449439998</v>
+        <v>3.6922003391840006</v>
       </c>
       <c r="Q63" s="1">
         <f t="shared" ref="Q63" si="24">Q61/Q62</f>
-        <v>3.8115214320853066</v>
+        <v>3.9448175989973766</v>
       </c>
       <c r="R63" s="1">
         <f t="shared" ref="R63" si="25">R61/R62</f>
-        <v>4.025629532509388</v>
+        <v>2.1185284251253749</v>
       </c>
       <c r="S63" s="1">
         <f t="shared" ref="S63" si="26">S61/S62</f>
-        <v>4.2492858469509569</v>
+        <v>2.2799411067833364</v>
       </c>
       <c r="T63" s="1">
         <f t="shared" ref="T63" si="27">T61/T62</f>
-        <v>2.2206740164551233</v>
+        <v>2.4499268502004181</v>
       </c>
       <c r="V63" s="2" t="s">
         <v>40</v>
@@ -2987,7 +2986,7 @@
       </c>
       <c r="R65" s="6">
         <f t="shared" si="28"/>
-        <v>4.0000000000000036E-2</v>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="S65" s="6">
         <f t="shared" si="28"/>
@@ -2995,7 +2994,7 @@
       </c>
       <c r="T65" s="6">
         <f t="shared" si="28"/>
-        <v>-0.30000000000000004</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="V65" s="2" t="s">
         <v>41</v>
@@ -3043,7 +3042,7 @@
       </c>
       <c r="W66" s="3">
         <f>NPV(W65,O61:XFD61)+Main!K5-Main!K6</f>
-        <v>131603.00910341376</v>
+        <v>127092.75011623892</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
@@ -3060,41 +3059,41 @@
       </c>
       <c r="O67" s="5">
         <f t="shared" si="29"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="P67" s="5">
         <f t="shared" si="29"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="Q67" s="5">
         <f t="shared" si="29"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="R67" s="5">
         <f t="shared" si="29"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="S67" s="5">
         <f t="shared" si="29"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="T67" s="5">
         <f t="shared" si="29"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V67" s="2" t="s">
         <v>44</v>
       </c>
       <c r="W67" s="1">
         <f>W66/Main!K3</f>
-        <v>23.147677451633676</v>
+        <v>22.35436716967488</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M68" s="5"/>
       <c r="W68" s="5">
         <f>W67/Main!K2-1</f>
-        <v>-8.6647772319625727E-3</v>
+        <v>-4.2639521641332778E-2</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
@@ -3111,27 +3110,27 @@
       </c>
       <c r="O69" s="2">
         <f>N69+O61</f>
-        <v>-27837.51252</v>
+        <v>-27602.421720000002</v>
       </c>
       <c r="P69" s="2">
         <f t="shared" ref="P69:T69" si="30">O69+P61</f>
-        <v>-7280.0096838192003</v>
+        <v>-6556.8797866511995</v>
       </c>
       <c r="Q69" s="2">
         <f t="shared" si="30"/>
-        <v>14445.662479067047</v>
+        <v>15928.580527633847</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" si="30"/>
-        <v>37391.750814370556</v>
+        <v>28004.192550848486</v>
       </c>
       <c r="S69" s="2">
         <f t="shared" si="30"/>
-        <v>61612.680141991012</v>
+        <v>40999.8568595135</v>
       </c>
       <c r="T69" s="2">
         <f t="shared" si="30"/>
-        <v>74270.522035785209</v>
+        <v>54964.439905655883</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
@@ -3496,99 +3495,99 @@
       </c>
       <c r="R98" s="2">
         <f t="shared" si="32"/>
-        <v>17576</v>
+        <v>11830</v>
       </c>
       <c r="S98" s="2">
         <f t="shared" si="32"/>
-        <v>18279.04</v>
+        <v>12303.2</v>
       </c>
       <c r="T98" s="2">
         <f t="shared" si="32"/>
-        <v>12795.328</v>
+        <v>12795.328000000001</v>
       </c>
       <c r="U98" s="2">
         <f>T98*(1+$W$64)</f>
-        <v>12667.37472</v>
+        <v>12667.374720000002</v>
       </c>
       <c r="V98" s="2">
         <f t="shared" ref="V98:CG98" si="33">U98*(1+$W$64)</f>
-        <v>12540.700972799999</v>
+        <v>12540.700972800001</v>
       </c>
       <c r="W98" s="2">
         <f t="shared" si="33"/>
-        <v>12415.293963071999</v>
+        <v>12415.293963072001</v>
       </c>
       <c r="X98" s="2">
         <f t="shared" si="33"/>
-        <v>12291.14102344128</v>
+        <v>12291.141023441282</v>
       </c>
       <c r="Y98" s="2">
         <f t="shared" si="33"/>
-        <v>12168.229613206866</v>
+        <v>12168.229613206868</v>
       </c>
       <c r="Z98" s="2">
         <f t="shared" si="33"/>
-        <v>12046.547317074797</v>
+        <v>12046.547317074799</v>
       </c>
       <c r="AA98" s="2">
         <f t="shared" si="33"/>
-        <v>11926.081843904049</v>
+        <v>11926.08184390405</v>
       </c>
       <c r="AB98" s="2">
         <f t="shared" si="33"/>
-        <v>11806.821025465008</v>
+        <v>11806.821025465009</v>
       </c>
       <c r="AC98" s="2">
         <f t="shared" si="33"/>
-        <v>11688.752815210357</v>
+        <v>11688.752815210359</v>
       </c>
       <c r="AD98" s="2">
         <f t="shared" si="33"/>
-        <v>11571.865287058254</v>
+        <v>11571.865287058255</v>
       </c>
       <c r="AE98" s="2">
         <f t="shared" si="33"/>
-        <v>11456.146634187671</v>
+        <v>11456.146634187673</v>
       </c>
       <c r="AF98" s="2">
         <f t="shared" si="33"/>
-        <v>11341.585167845795</v>
+        <v>11341.585167845797</v>
       </c>
       <c r="AG98" s="2">
         <f t="shared" si="33"/>
-        <v>11228.169316167337</v>
+        <v>11228.169316167339</v>
       </c>
       <c r="AH98" s="2">
         <f t="shared" si="33"/>
-        <v>11115.887623005665</v>
+        <v>11115.887623005667</v>
       </c>
       <c r="AI98" s="2">
         <f t="shared" si="33"/>
-        <v>11004.728746775609</v>
+        <v>11004.72874677561</v>
       </c>
       <c r="AJ98" s="2">
         <f t="shared" si="33"/>
-        <v>10894.681459307852</v>
+        <v>10894.681459307854</v>
       </c>
       <c r="AK98" s="2">
         <f t="shared" si="33"/>
-        <v>10785.734644714774</v>
+        <v>10785.734644714776</v>
       </c>
       <c r="AL98" s="2">
         <f t="shared" si="33"/>
-        <v>10677.877298267626</v>
+        <v>10677.877298267627</v>
       </c>
       <c r="AM98" s="2">
         <f t="shared" si="33"/>
-        <v>10571.09852528495</v>
+        <v>10571.098525284951</v>
       </c>
       <c r="AN98" s="2">
         <f t="shared" si="33"/>
-        <v>10465.387540032099</v>
+        <v>10465.387540032101</v>
       </c>
       <c r="AO98" s="2">
         <f t="shared" si="33"/>
-        <v>10360.733664631778</v>
+        <v>10360.73366463178</v>
       </c>
       <c r="AP98" s="2">
         <f t="shared" si="33"/>
@@ -3981,7 +3980,7 @@
       </c>
       <c r="W104" s="3">
         <f>NPV(W103,O98:DR98)+Main!K5-Main!K6</f>
-        <v>113595.72899680934</v>
+        <v>105305.19117047873</v>
       </c>
     </row>
     <row r="105" spans="2:122" x14ac:dyDescent="0.2">
@@ -3990,13 +3989,13 @@
       </c>
       <c r="W105" s="1">
         <f>W104/Main!K3</f>
-        <v>19.980373645066791</v>
+        <v>18.522149423509145</v>
       </c>
     </row>
     <row r="106" spans="2:122" x14ac:dyDescent="0.2">
       <c r="W106" s="5">
         <f>W105/Main!K2-1</f>
-        <v>-0.14430947986865994</v>
+        <v>-0.2067601959953258</v>
       </c>
     </row>
   </sheetData>
